--- a/dataset/dataset.xlsx
+++ b/dataset/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ActionTransformer\Excel_data\example_sheets_part1\SU_adaptation_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18481782-5CF0-4745-B01C-13D8799548D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E716C7-B2E5-4928-8C82-E8126220CB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{08ADE0D8-0819-4913-9CDD-A95B1FD8FC85}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{08ADE0D8-0819-4913-9CDD-A95B1FD8FC85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="508">
   <si>
     <t>Context</t>
   </si>
@@ -283,9 +283,6 @@
     <t>Management, Formatting</t>
   </si>
   <si>
-    <t xml:space="preserve">Set cells in the Sales column that are on 5/25/2011 as red fill with white text. </t>
-  </si>
-  <si>
     <t>Highlight sales above average as red fill.</t>
   </si>
   <si>
@@ -529,9 +526,6 @@
     <t>Autofill (1), Create chart (1), Add data series (1), Set chart legend (1), Set chart title (1)</t>
   </si>
   <si>
-    <t>Highlight the mass values in column A  &gt; 0.8 in italic and the mass value in column C &lt; 0.4 with underlines.</t>
-  </si>
-  <si>
     <t>Fill out the rest rows for columns B and D using B2 and D2 respectively. Draw a scatter plot with smooth lines to show the A:B and C:D as separate series. Then set the legends at the bottom. Set the X and Y-axis labels as "Hanging Mass (kg)" and "Acceleration (m/s^2)" respectively.</t>
   </si>
   <si>
@@ -598,9 +592,6 @@
     <t>Update cell value (1), Autofill (1), Conditional formatting (1), Math functions</t>
   </si>
   <si>
-    <t>Change the background color in the Customers column based on the following criteria: If the distance to Birmingham is 1.5 times greater than the distance to Seattle, use red. If the distance to Seattle is less than 2 times the distance to Oakland, use yellow.</t>
-  </si>
-  <si>
     <t>Update cell value (1), Autofill (1), Conditional formatting (1), Math functions, Logical functions</t>
   </si>
   <si>
@@ -634,9 +625,6 @@
     <t>SmallBalanceSheet</t>
   </si>
   <si>
-    <t>My workbook records the total assets, liabilities, and owner’ equity. Here are the necessary financial formulas: Assets = Current Assets  + Fixed Assets + Other Assets; Liabilities &amp; Owner's Equity = Current Liabilities + Long-term Liabilities + Owner's Equity.</t>
-  </si>
-  <si>
     <t>Can you help me fill in the Assets and Liabilities &amp; Owner's Equity columns? Don't forget to set all cells an accounting number type.</t>
   </si>
   <si>
@@ -658,9 +646,6 @@
     <t>Create sheet, Update cell value (2), Autofill (2), Math functions, Set data type (2)</t>
   </si>
   <si>
-    <t>Fill in the Assets column and then calculate the annual growth rate of Assets in a column on the right named "Growth Rate". Format the growth values as percentage type and highlight the values below 5% with red fill.</t>
-  </si>
-  <si>
     <t>Formula, Formatting, Entry and manipulation</t>
   </si>
   <si>
@@ -694,9 +679,6 @@
     <t>Set all stock values as currency type.</t>
   </si>
   <si>
-    <t>Highlight the stock name with green fill if its value increased.</t>
-  </si>
-  <si>
     <t>In a new column named "Color Indicator", set the cell value to "Y" if the stock value increased from Jan 1 to Dec 31 and "N" otherwise. Then, create a bar chart displaying stock names and their values on Dec 31.</t>
   </si>
   <si>
@@ -904,9 +886,6 @@
     <t>The instruction performs a conversion of values in a column based on a specific formula, which is a realistic and relevant task in Excel</t>
   </si>
   <si>
-    <t>If the column A angle &lt; 75 and the column C height &gt; 0.25, change the font color of the corresponding Range column cells to red.</t>
-  </si>
-  <si>
     <t>The instruction fulfills all 4 criteria</t>
   </si>
   <si>
@@ -943,9 +922,6 @@
     <t>Sort the data by the Revenue column in ascending order.</t>
   </si>
   <si>
-    <t>Can you help me set the fill color of the Invoice No. column cells whose corresponding values in the Sales column range between 200 and 500 as green?</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -1144,24 +1120,12 @@
     <t>Count the number of customers whose distances to all destinations are less than 1000 miles.</t>
   </si>
   <si>
-    <t>In a new sheet, merge cells A1:B1 and write bold text "Summer sales ($)" with blue fill color and white text color. Then create a pivot table starting at A2 in this new sheet for the Sheet 1 data to calculate the revenue sum for each product. Plot a horizontal bar chart illustrating the results. Set the chart title as "Revenue of Each Product" and turn off the axis titles and legend.</t>
-  </si>
-  <si>
     <t>Create sheet, Merge cells (2), Update cell value (2), Format cells (2), Create Pivot Table (2), Create Pivot Chart (2), Set chart title (2), Set chart axis (2), Set chart legend (2)</t>
   </si>
   <si>
-    <t>In a new sheet, merge cells A1:B1 and write bold text "Summer sales ($)" with yellow fill color and white text color. Then create a pivot table starting at A2 in this new sheet for my data in Sheet 1 to calculate the sum of revenue for each week. Plot a line chart illustrating the trend of the results with chart title "Revenue of Each Week". Set the horizontal axis title as "Week" and turn off the vertical axis title as well as legend.</t>
-  </si>
-  <si>
-    <t>In a new sheet, merge cells A1:B1 and write bold text "Summer sales ($)" with blue fill color and white text color. Then create a pivot table at A2 in this new sheet for my data in Sheet 1 and summarize the monthly revenue for each sales channel. Plot a stacked column chart illustrating the results. Set the chart titles as "Revenue of Each Channel ($)" and move the legends to the bottom.</t>
-  </si>
-  <si>
     <t>Create sheet, Merge cells (2), Update cell value (2), Format cells (2), Create Pivot Table (2), Create Pivot Chart (2), Set chart title (2), Set chart legend (2)</t>
   </si>
   <si>
-    <t>In a new sheet, merge cells A1:B1 and write bold text "Summer sales ($)" with blue fill color and white text color. Then create a pivot table starting at A2 in this new sheet for my data in Sheet 1 to calculate the sum of revenue for each promotion. Plot a 3D pie chart illustrating the results. Set the chart title as "Revenue of Each Promotion ($)" and move the legends to the bottom. Don't forget to add outside end data labels for the chart.</t>
-  </si>
-  <si>
     <t>Summarize the total revenue for each product in a new sheet.</t>
   </si>
   <si>
@@ -1171,9 +1135,6 @@
     <t>Display the values in the "Revenue" column with the currency format.</t>
   </si>
   <si>
-    <t>Display the Revenue column cells with yellow fill if the "Promotion" is not "None" and the "Sales Channel" is "In Store Sales".</t>
-  </si>
-  <si>
     <t>In column H named "Marked Dates", mark dates as '-' if the date is less than July 16th, 2020, as '+' if more, and leave the cell unchanged otherwise.</t>
   </si>
   <si>
@@ -1225,15 +1186,9 @@
     <t>Calculate the Future Value column right after column E by multiplying the Present Value with (1 + Annual Interest Rate / # Compound periods) raised to the power of (Years * # Compound Periods).</t>
   </si>
   <si>
-    <t>Create a new sheet named "Sheet2" and merge cells A1:C1 to write the header "Investment Summary". Beneath that, merge cells A2:B2 to write "High Interest Rate" and merge cells C2:D2 to form "Low Interest Rate".</t>
-  </si>
-  <si>
     <t>Create sheet, Merge cells (2)</t>
   </si>
   <si>
-    <t>Concatenate the header and the value of each column from A to E for all rows in the following format: "Header A: Value A, Header B: Value B, ..., Header E: Value E". Write the results in column F named "Combined Info".</t>
-  </si>
-  <si>
     <t>Calculate the future value for each investment based on the given formula in column F named "Future Value". Then create a scatter chart in a new sheet with the No. column as the x-axis and the Future Value column as the y-axis.</t>
   </si>
   <si>
@@ -1273,9 +1228,6 @@
     <t>Entry and Manipulation, Formatting</t>
   </si>
   <si>
-    <t>Fill the Net Profit column and then calculate net profit margin by dividing Net Profit by Net Sales in a new column called "Net Profit Margin". Mark the net profit margins ranking top with red fill.</t>
-  </si>
-  <si>
     <t>Create a Pivot Table in a new sheet named to calculate the total Operating Expenses for each year.</t>
   </si>
   <si>
@@ -1309,9 +1261,6 @@
     <t>Update cell value (1), Math functions, Autofill (1), Set data type (1), Text functions</t>
   </si>
   <si>
-    <t>Highlight cells in the Materials Charges column with white text and green fill if their value is greater than the corresponding value in the Sales column by 10%.</t>
-  </si>
-  <si>
     <t>Insert links to the first 3 headers, linking to a file with the same name as the cell value and the extension ".pdf".</t>
   </si>
   <si>
@@ -1321,24 +1270,9 @@
     <t>Update cell value (1), Autofill (1), Copy-paste (2), Create chart (2), Set chart axis (2)</t>
   </si>
   <si>
-    <t>Highlight the Sales Rep cells whose corresponding values in the Sales column are above the median as green fill with white text.</t>
-  </si>
-  <si>
-    <t>I want to highlight the Sales column cells &gt; 600$ with red fill with white text.</t>
-  </si>
-  <si>
-    <t>Sort by Sales in descending order and then apply different colors to the Sales column: the cells &lt; 250 gets red fill while those &gt; 500 gets blue fill.</t>
-  </si>
-  <si>
     <t>Sort (1), Conditional formatting (1)</t>
   </si>
   <si>
-    <t>Highlight cells in the "Date" column before May 27th with yellow fill.</t>
-  </si>
-  <si>
-    <t>Create a Pivot Table in a new sheet to count how many times each "Invoice No." appears.</t>
-  </si>
-  <si>
     <t>Add a new row titled "Total" to calculate total units and total sales.</t>
   </si>
   <si>
@@ -1406,9 +1340,6 @@
   </si>
   <si>
     <t>Compute the average sales of each sales rep across all months and put the results in a table (two headers "Sales Rep" and "Avg Sales") of a new sheet.</t>
-  </si>
-  <si>
-    <t>Multiply the distance to the nearest destination by the per-mile shipping charge in a new column named "Cost". Highlight the customer name with green text if the corresponding cost is less than the minimum charge.</t>
   </si>
   <si>
     <t>Make a table (headers are "Customers" and "Avg Distance") in a new sheet and calculate the average distance from each customer to the four destinations in this table.</t>
@@ -1537,6 +1468,141 @@
   </si>
   <si>
     <t>Create sheet, Copy-paste (3)</t>
+  </si>
+  <si>
+    <t>My workbook records the total assets, liabilities, and owner's equity. Here are the necessary financial formulas: Assets = Current Assets  + Fixed Assets + Other Assets; Liabilities &amp; Owner's Equity = Current Liabilities + Long-term Liabilities + Owner's Equity.</t>
+  </si>
+  <si>
+    <t>My workbook records the values of my stocks on two dates.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>My workbook records the weekly sales of my company and is used to compute taxes. The necessary formulas are as follows: Profit Before Tax = Sales - Total Expenses Before Tax; Tax Expense = Profit Before Tax * Tax Rate.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>My sheet records velocity against displacement.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>My workbook records weekly sales and COGS but the profit has not been calculated. The necessary formula is Profit = Sales - COGS.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>My sheet records the accelerations of a block in two physical scenarios but has not been completed. One scenario is in column A to B while the other in C to D.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>My sheet shows how two variables (Range and Height) changes along with the projection angle.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>My workbook records many invoices made on different dates.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>My workbook contains two tables: Sheet "Sheet1" records my transactional data which are the number of rolls of fence sold on certain dates. Sheet "Pricing Table" is a pricing table used to determine price per roll according to the range the roll number falls in (The range is bounded by Units From and Unit To).</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>My workbook records the monthly sales of all employees.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>My company needs to deliver the goods to customers by truck. My workbook records the distances between my customers and four destinations. The per mile shipping charge is $3.11 with a minimum charge of $75.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>My workbook records the sales of my company in the summer.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display the Revenue column cells with yellow fill if the "Promotion" is not "None" and the "Sales Channel" is "In Store Sales".</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fill the Net Profit column and then calculate net profit margin by dividing Net Profit by Net Sales in a new column called "Net Profit Margin". Mark the net profit margins ranking top with red fill.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Highlight cells in the Materials Charges column with white text and green fill if their values are greater than the corresponding value in the Sales column by 10%.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Highlight the Sales Rep cells whose corresponding values in the Sales column are above the median as green fill with white text.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can you help me set the fill color of the Invoice No. column cells whose corresponding values in the Sales column range between 200 and 500 as green?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Set cells in the Sales column that are on 5/25/2011 as red fill with white text. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want to highlight the Sales column cells &gt; 600$ with red fill with white text.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort by Sales in descending order and then apply different colors to the Sales column: the cells &lt; 250 gets red fill while those &gt; 500 gets blue fill.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Highlight cells in the "Date" column before May 27th with yellow fill.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Highlight the mass values in column A  &gt; 0.8 in italic and the mass value in column C &lt; 0.4 with underlines.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change the background color in the Customers column based on the following criteria: If the distance to Birmingham is 1.5 times greater than the distance to Seattle, use red. If the distance to Seattle is less than 2 times the distance to Oakland, use yellow.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiply the distance to the nearest destination by the per-mile shipping charge in a new column named "Cost". Highlight the customer name with green text if the corresponding cost is less than the minimum charge.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fill in the Assets column and then calculate the annual growth rate of Assets in a column on the right named "Growth Rate". Format the growth values as percentage type and highlight the values below 5% with red fill.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Highlight the stock name with green fill if its value increased.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>If the column A angle &lt; 75 and the column C height &gt; 0.25, change the font color of the corresponding Range column cells to red.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>In a new sheet, merge cells A1:B1 and write bold text "Summer sales ($)" with blue fill color and white text color. Then create a pivot table starting at A2 in this new sheet for the Sheet 1 data to calculate the revenue sum for each product. Plot a horizontal bar chart illustrating the results. Set the chart title as "Revenue of Each Product" and remove the axis titles and legend.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>In a new sheet, merge cells A1:B1 and write bold text "Summer sales ($)" with yellow fill color and white text color. Then create a pivot table starting at A2 in this new sheet for my data in Sheet 1 to calculate the sum of revenue for each week. Plot a line chart illustrating the trend of the results with chart title "Revenue of Each Week". Set the horizontal axis title as "Week" and remove the vertical axis title as well as legend.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>In a new sheet, merge cells A1:B1 and write bold text "Summer sales ($)" with blue fill color and white text color. Then create a pivot table at A2 in this new sheet for my data in Sheet 1 and summarize the monthly revenue for each sales channel. Plot a stacked column chart illustrating the results. Set the chart titles as "Revenue of Each Channel ($)" and move the legends to the bottom.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>In a new sheet, merge cells A1:B1 and write bold text "Summer sales ($)" with blue fill color and white text color. Then create a pivot table starting at A2 in this new sheet for my data in Sheet 1 to calculate the sum of revenue for each promotion. Plot a 3D pie chart illustrating the results. Set the chart title as "Revenue of Each Promotion ($)" and move the legends to the bottom. Don't forget to add outside end data labels for the chart.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concatenate the header and the value of each column from A to E for all rows in the following format: "Header A: Value A, Header B: Value B, ..., Header E: Value E". Write the results in column F named "Combined Info".</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create a new sheet named "Sheet2" and merge cells A1:C1 to write the header "Investment Summary". Beneath that, merge cells A2:B2 to write "High Interest Rate" and merge cells C2:D2 to form "Low Interest Rate".</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create a Pivot Table in a new sheet to count how many times each "Invoice No." appears.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1610,8 +1676,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1629,7 +1695,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1748,7 +1814,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>汇总</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5518,7 +5584,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{97249CCE-126F-4969-AEDD-6710528ECBB4}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{97249CCE-126F-4969-AEDD-6710528ECBB4}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -5711,7 +5777,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6009,29 +6075,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41431520-EF23-498B-9721-6399FC37F674}">
   <dimension ref="A1:J222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E134" workbookViewId="0">
-      <selection activeCell="G143" sqref="G143"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
-    <col min="6" max="6" width="39.375" customWidth="1"/>
-    <col min="7" max="7" width="41.75" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" customWidth="1"/>
+    <col min="7" max="7" width="41.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="B1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -6040,7 +6107,7 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -6052,7 +6119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -6063,16 +6130,16 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -6083,16 +6150,16 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6103,13 +6170,13 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -6121,7 +6188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -6132,13 +6199,13 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H5">
         <v>23</v>
@@ -6150,7 +6217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -6161,13 +6228,13 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H6">
         <v>46</v>
@@ -6179,7 +6246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6196,7 +6263,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="H7">
         <v>57</v>
@@ -6208,7 +6275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -6219,13 +6286,13 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="H8">
         <v>59</v>
@@ -6237,7 +6304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -6248,13 +6315,13 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="H9">
         <v>63</v>
@@ -6266,7 +6333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -6277,13 +6344,13 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H10">
         <v>67</v>
@@ -6295,7 +6362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -6306,16 +6373,16 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -6326,13 +6393,13 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -6344,7 +6411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -6355,13 +6422,13 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="F13" t="s">
         <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H13">
         <v>13</v>
@@ -6373,7 +6440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -6390,7 +6457,7 @@
         <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H14">
         <v>45</v>
@@ -6402,7 +6469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -6413,13 +6480,13 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H15">
         <v>56</v>
@@ -6431,7 +6498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -6442,13 +6509,13 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H16">
         <v>63</v>
@@ -6460,7 +6527,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -6471,13 +6538,13 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H17">
         <v>64</v>
@@ -6489,7 +6556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -6500,22 +6567,22 @@
         <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -6526,13 +6593,13 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="F19" t="s">
         <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H19">
         <v>20</v>
@@ -6544,7 +6611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -6555,13 +6622,13 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="F20" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="G20" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="H20">
         <v>35</v>
@@ -6573,7 +6640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -6584,13 +6651,13 @@
         <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H21">
         <v>41</v>
@@ -6602,7 +6669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -6613,13 +6680,13 @@
         <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="H22">
         <v>42</v>
@@ -6631,7 +6698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -6642,13 +6709,13 @@
         <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H23">
         <v>45</v>
@@ -6660,7 +6727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -6674,10 +6741,10 @@
         <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="G24" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H24">
         <v>55</v>
@@ -6689,7 +6756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -6706,7 +6773,7 @@
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H25">
         <v>59</v>
@@ -6718,7 +6785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -6729,16 +6796,16 @@
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F26" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G26" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -6749,13 +6816,13 @@
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F27" t="s">
         <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H27">
         <v>6</v>
@@ -6767,7 +6834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -6778,13 +6845,13 @@
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H28">
         <v>12</v>
@@ -6796,7 +6863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -6807,13 +6874,13 @@
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F29" t="s">
         <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H29">
         <v>14</v>
@@ -6825,7 +6892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -6836,13 +6903,13 @@
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F30" t="s">
         <v>57</v>
       </c>
       <c r="G30" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H30">
         <v>18</v>
@@ -6854,7 +6921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -6865,13 +6932,13 @@
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F31" t="s">
         <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H31">
         <v>31</v>
@@ -6883,7 +6950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -6900,7 +6967,7 @@
         <v>23</v>
       </c>
       <c r="G32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H32">
         <v>45</v>
@@ -6912,7 +6979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -6923,13 +6990,13 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="H33">
         <v>58</v>
@@ -6941,7 +7008,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -6952,13 +7019,13 @@
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="H34">
         <v>59</v>
@@ -6970,7 +7037,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -6981,13 +7048,13 @@
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F35" t="s">
         <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H35">
         <v>60</v>
@@ -6999,7 +7066,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -7010,7 +7077,7 @@
         <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E36" t="s">
         <v>42</v>
@@ -7019,10 +7086,10 @@
         <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -7033,13 +7100,13 @@
         <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H37">
         <v>4</v>
@@ -7051,7 +7118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -7062,13 +7129,13 @@
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H38">
         <v>11</v>
@@ -7080,7 +7147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -7091,13 +7158,13 @@
         <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H39">
         <v>12</v>
@@ -7109,7 +7176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -7120,13 +7187,13 @@
         <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H40">
         <v>14</v>
@@ -7138,7 +7205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -7149,13 +7216,13 @@
         <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F41" t="s">
         <v>23</v>
       </c>
       <c r="G41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H41">
         <v>26</v>
@@ -7167,7 +7234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -7178,13 +7245,13 @@
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="H42">
         <v>33</v>
@@ -7196,7 +7263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -7207,13 +7274,13 @@
         <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H43">
         <v>37</v>
@@ -7225,7 +7292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -7236,13 +7303,13 @@
         <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F44" t="s">
         <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="H44">
         <v>38</v>
@@ -7251,10 +7318,10 @@
         <v>9</v>
       </c>
       <c r="J44" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -7271,7 +7338,7 @@
         <v>43</v>
       </c>
       <c r="G45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H45">
         <v>39</v>
@@ -7283,7 +7350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -7294,13 +7361,13 @@
         <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F46" t="s">
         <v>23</v>
       </c>
       <c r="G46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H46">
         <v>44</v>
@@ -7312,7 +7379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -7323,13 +7390,13 @@
         <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H47">
         <v>46</v>
@@ -7341,7 +7408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -7352,13 +7419,13 @@
         <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="H48">
         <v>47</v>
@@ -7370,7 +7437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -7381,13 +7448,13 @@
         <v>41</v>
       </c>
       <c r="D49" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F49" t="s">
         <v>43</v>
       </c>
       <c r="G49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H49">
         <v>49</v>
@@ -7399,7 +7466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -7410,13 +7477,13 @@
         <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50">
         <v>52</v>
@@ -7428,7 +7495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -7439,13 +7506,13 @@
         <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F51" t="s">
         <v>45</v>
       </c>
       <c r="G51" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H51">
         <v>62</v>
@@ -7457,7 +7524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -7468,7 +7535,7 @@
         <v>47</v>
       </c>
       <c r="D52" t="s">
-        <v>370</v>
+        <v>501</v>
       </c>
       <c r="E52" t="s">
         <v>48</v>
@@ -7477,10 +7544,10 @@
         <v>49</v>
       </c>
       <c r="G52" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -7491,7 +7558,7 @@
         <v>47</v>
       </c>
       <c r="D53" t="s">
-        <v>372</v>
+        <v>502</v>
       </c>
       <c r="E53" t="s">
         <v>48</v>
@@ -7500,10 +7567,10 @@
         <v>49</v>
       </c>
       <c r="G53" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -7514,7 +7581,7 @@
         <v>47</v>
       </c>
       <c r="D54" t="s">
-        <v>373</v>
+        <v>503</v>
       </c>
       <c r="E54" t="s">
         <v>48</v>
@@ -7523,10 +7590,10 @@
         <v>49</v>
       </c>
       <c r="G54" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -7537,7 +7604,7 @@
         <v>47</v>
       </c>
       <c r="D55" t="s">
-        <v>375</v>
+        <v>504</v>
       </c>
       <c r="E55" t="s">
         <v>48</v>
@@ -7549,7 +7616,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>46</v>
       </c>
@@ -7560,13 +7627,13 @@
         <v>47</v>
       </c>
       <c r="D56" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="F56" t="s">
         <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -7578,7 +7645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>46</v>
       </c>
@@ -7589,13 +7656,13 @@
         <v>47</v>
       </c>
       <c r="D57" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="F57" t="s">
         <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H57">
         <v>8</v>
@@ -7607,7 +7674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>46</v>
       </c>
@@ -7618,13 +7685,13 @@
         <v>47</v>
       </c>
       <c r="D58" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="F58" t="s">
         <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H58">
         <v>18</v>
@@ -7636,7 +7703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>46</v>
       </c>
@@ -7647,13 +7714,13 @@
         <v>47</v>
       </c>
       <c r="D59" t="s">
-        <v>379</v>
+        <v>486</v>
       </c>
       <c r="F59" t="s">
         <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H59">
         <v>22</v>
@@ -7665,7 +7732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>46</v>
       </c>
@@ -7676,13 +7743,13 @@
         <v>47</v>
       </c>
       <c r="D60" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="F60" t="s">
         <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="H60">
         <v>24</v>
@@ -7694,7 +7761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -7705,13 +7772,13 @@
         <v>47</v>
       </c>
       <c r="D61" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="F61" t="s">
         <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="H61">
         <v>53</v>
@@ -7723,7 +7790,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>46</v>
       </c>
@@ -7734,13 +7801,13 @@
         <v>47</v>
       </c>
       <c r="D62" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="F62" t="s">
         <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H62">
         <v>60</v>
@@ -7752,7 +7819,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>46</v>
       </c>
@@ -7763,13 +7830,13 @@
         <v>47</v>
       </c>
       <c r="D63" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
       </c>
       <c r="G63" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H63">
         <v>64</v>
@@ -7781,7 +7848,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>46</v>
       </c>
@@ -7792,13 +7859,13 @@
         <v>47</v>
       </c>
       <c r="D64" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F64" t="s">
         <v>23</v>
       </c>
       <c r="G64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H64">
         <v>65</v>
@@ -7810,7 +7877,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>54</v>
       </c>
@@ -7821,16 +7888,16 @@
         <v>55</v>
       </c>
       <c r="D65" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="F65" t="s">
         <v>57</v>
       </c>
       <c r="G65" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>54</v>
       </c>
@@ -7841,13 +7908,13 @@
         <v>55</v>
       </c>
       <c r="D66" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="F66" t="s">
         <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -7859,7 +7926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>54</v>
       </c>
@@ -7870,13 +7937,13 @@
         <v>55</v>
       </c>
       <c r="D67" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="F67" t="s">
         <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H67">
         <v>14</v>
@@ -7888,7 +7955,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>54</v>
       </c>
@@ -7899,13 +7966,13 @@
         <v>55</v>
       </c>
       <c r="D68" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="F68" t="s">
         <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H68">
         <v>31</v>
@@ -7917,7 +7984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>54</v>
       </c>
@@ -7928,13 +7995,13 @@
         <v>55</v>
       </c>
       <c r="D69" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="F69" t="s">
         <v>57</v>
       </c>
       <c r="G69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H69">
         <v>53</v>
@@ -7946,7 +8013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>54</v>
       </c>
@@ -7957,13 +8024,13 @@
         <v>55</v>
       </c>
       <c r="D70" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
       </c>
       <c r="G70" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H70">
         <v>54</v>
@@ -7975,7 +8042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>58</v>
       </c>
@@ -7986,16 +8053,16 @@
         <v>59</v>
       </c>
       <c r="D71" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="F71" t="s">
         <v>57</v>
       </c>
       <c r="G71" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>58</v>
       </c>
@@ -8006,13 +8073,13 @@
         <v>59</v>
       </c>
       <c r="D72" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="F72" t="s">
         <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -8024,7 +8091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>58</v>
       </c>
@@ -8035,13 +8102,13 @@
         <v>59</v>
       </c>
       <c r="D73" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="F73" t="s">
         <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H73">
         <v>20</v>
@@ -8053,7 +8120,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>58</v>
       </c>
@@ -8064,13 +8131,13 @@
         <v>59</v>
       </c>
       <c r="D74" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F74" t="s">
         <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H74">
         <v>21</v>
@@ -8082,7 +8149,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>58</v>
       </c>
@@ -8093,13 +8160,13 @@
         <v>59</v>
       </c>
       <c r="D75" t="s">
-        <v>397</v>
+        <v>506</v>
       </c>
       <c r="F75" t="s">
         <v>43</v>
       </c>
       <c r="G75" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="H75">
         <v>29</v>
@@ -8111,7 +8178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>58</v>
       </c>
@@ -8122,13 +8189,13 @@
         <v>59</v>
       </c>
       <c r="D76" t="s">
-        <v>399</v>
+        <v>505</v>
       </c>
       <c r="F76" t="s">
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H76">
         <v>54</v>
@@ -8140,7 +8207,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>58</v>
       </c>
@@ -8151,13 +8218,13 @@
         <v>59</v>
       </c>
       <c r="D77" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="F77" t="s">
         <v>63</v>
       </c>
       <c r="G77" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="H77">
         <v>59</v>
@@ -8169,7 +8236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>64</v>
       </c>
@@ -8180,16 +8247,16 @@
         <v>65</v>
       </c>
       <c r="D78" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="F78" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G78" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>64</v>
       </c>
@@ -8200,13 +8267,13 @@
         <v>65</v>
       </c>
       <c r="D79" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="F79" t="s">
         <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H79">
         <v>6</v>
@@ -8218,7 +8285,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>64</v>
       </c>
@@ -8229,13 +8296,13 @@
         <v>65</v>
       </c>
       <c r="D80" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="F80" t="s">
         <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H80">
         <v>7</v>
@@ -8247,7 +8314,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>64</v>
       </c>
@@ -8258,13 +8325,13 @@
         <v>65</v>
       </c>
       <c r="D81" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="F81" t="s">
         <v>23</v>
       </c>
       <c r="G81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H81">
         <v>20</v>
@@ -8276,7 +8343,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>64</v>
       </c>
@@ -8287,13 +8354,13 @@
         <v>65</v>
       </c>
       <c r="D82" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="F82" t="s">
         <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H82">
         <v>21</v>
@@ -8305,7 +8372,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>64</v>
       </c>
@@ -8322,7 +8389,7 @@
         <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H83">
         <v>27</v>
@@ -8334,7 +8401,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>64</v>
       </c>
@@ -8345,13 +8412,13 @@
         <v>65</v>
       </c>
       <c r="D84" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="F84" t="s">
         <v>43</v>
       </c>
       <c r="G84" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="H84">
         <v>38</v>
@@ -8363,7 +8430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>72</v>
       </c>
@@ -8374,19 +8441,19 @@
         <v>71</v>
       </c>
       <c r="D85" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="F85" t="s">
         <v>57</v>
       </c>
       <c r="G85" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>72</v>
       </c>
@@ -8397,13 +8464,13 @@
         <v>71</v>
       </c>
       <c r="D86" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="F86" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="G86" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H86">
         <v>23</v>
@@ -8415,7 +8482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>72</v>
       </c>
@@ -8426,13 +8493,13 @@
         <v>71</v>
       </c>
       <c r="D87" t="s">
-        <v>413</v>
+        <v>487</v>
       </c>
       <c r="F87" t="s">
         <v>73</v>
       </c>
       <c r="G87" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H87">
         <v>32</v>
@@ -8444,7 +8511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>72</v>
       </c>
@@ -8455,13 +8522,13 @@
         <v>71</v>
       </c>
       <c r="D88" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="F88" t="s">
         <v>18</v>
       </c>
       <c r="G88" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H88">
         <v>40</v>
@@ -8473,7 +8540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>72</v>
       </c>
@@ -8484,13 +8551,13 @@
         <v>71</v>
       </c>
       <c r="D89" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="F89" t="s">
         <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="H89">
         <v>53</v>
@@ -8502,7 +8569,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>76</v>
       </c>
@@ -8513,19 +8580,19 @@
         <v>75</v>
       </c>
       <c r="D90" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="F90" t="s">
         <v>57</v>
       </c>
       <c r="G90" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>76</v>
       </c>
@@ -8536,13 +8603,13 @@
         <v>75</v>
       </c>
       <c r="D91" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="F91" t="s">
         <v>12</v>
       </c>
       <c r="G91" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="H91">
         <v>3</v>
@@ -8554,7 +8621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>76</v>
       </c>
@@ -8565,13 +8632,13 @@
         <v>75</v>
       </c>
       <c r="D92" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="F92" t="s">
         <v>43</v>
       </c>
       <c r="G92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H92">
         <v>10</v>
@@ -8583,7 +8650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>76</v>
       </c>
@@ -8594,13 +8661,13 @@
         <v>75</v>
       </c>
       <c r="D93" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="F93" t="s">
         <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="H93">
         <v>13</v>
@@ -8612,7 +8679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>76</v>
       </c>
@@ -8623,13 +8690,13 @@
         <v>75</v>
       </c>
       <c r="D94" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="F94" t="s">
         <v>77</v>
       </c>
       <c r="G94" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="H94">
         <v>15</v>
@@ -8641,7 +8708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>76</v>
       </c>
@@ -8652,13 +8719,13 @@
         <v>75</v>
       </c>
       <c r="D95" t="s">
-        <v>425</v>
+        <v>488</v>
       </c>
       <c r="F95" t="s">
         <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H95">
         <v>25</v>
@@ -8670,7 +8737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>76</v>
       </c>
@@ -8681,13 +8748,13 @@
         <v>75</v>
       </c>
       <c r="D96" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="F96" t="s">
         <v>43</v>
       </c>
       <c r="G96" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="H96">
         <v>38</v>
@@ -8699,7 +8766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>76</v>
       </c>
@@ -8716,7 +8783,7 @@
         <v>23</v>
       </c>
       <c r="G97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H97">
         <v>50</v>
@@ -8728,7 +8795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>76</v>
       </c>
@@ -8739,13 +8806,13 @@
         <v>75</v>
       </c>
       <c r="D98" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="F98" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G98" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="H98">
         <v>54</v>
@@ -8757,7 +8824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>79</v>
       </c>
@@ -8768,7 +8835,7 @@
         <v>80</v>
       </c>
       <c r="D99" t="s">
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="E99" t="s">
         <v>81</v>
@@ -8777,10 +8844,10 @@
         <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>79</v>
       </c>
@@ -8791,7 +8858,7 @@
         <v>80</v>
       </c>
       <c r="D100" t="s">
-        <v>303</v>
+        <v>490</v>
       </c>
       <c r="E100" t="s">
         <v>81</v>
@@ -8800,10 +8867,10 @@
         <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>79</v>
       </c>
@@ -8814,7 +8881,7 @@
         <v>80</v>
       </c>
       <c r="D101" t="s">
-        <v>430</v>
+        <v>492</v>
       </c>
       <c r="E101" t="s">
         <v>81</v>
@@ -8823,10 +8890,10 @@
         <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>79</v>
       </c>
@@ -8837,7 +8904,7 @@
         <v>80</v>
       </c>
       <c r="D102" t="s">
-        <v>431</v>
+        <v>493</v>
       </c>
       <c r="E102" t="s">
         <v>81</v>
@@ -8846,10 +8913,10 @@
         <v>82</v>
       </c>
       <c r="G102" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>79</v>
       </c>
@@ -8857,10 +8924,10 @@
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>80</v>
+        <v>481</v>
       </c>
       <c r="D103" t="s">
-        <v>83</v>
+        <v>491</v>
       </c>
       <c r="E103" t="s">
         <v>81</v>
@@ -8869,10 +8936,10 @@
         <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>79</v>
       </c>
@@ -8883,7 +8950,7 @@
         <v>80</v>
       </c>
       <c r="D104" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E104" t="s">
         <v>81</v>
@@ -8892,10 +8959,10 @@
         <v>35</v>
       </c>
       <c r="G104" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>79</v>
       </c>
@@ -8906,13 +8973,13 @@
         <v>80</v>
       </c>
       <c r="D105" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
       <c r="F105" t="s">
         <v>35</v>
       </c>
       <c r="G105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H105">
         <v>23</v>
@@ -8924,7 +8991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>79</v>
       </c>
@@ -8935,13 +9002,13 @@
         <v>80</v>
       </c>
       <c r="D106" t="s">
-        <v>434</v>
+        <v>507</v>
       </c>
       <c r="F106" t="s">
         <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H106">
         <v>33</v>
@@ -8950,10 +9017,10 @@
         <v>9</v>
       </c>
       <c r="J106" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>79</v>
       </c>
@@ -8964,13 +9031,13 @@
         <v>80</v>
       </c>
       <c r="D107" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="F107" t="s">
         <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H107">
         <v>36</v>
@@ -8979,10 +9046,10 @@
         <v>9</v>
       </c>
       <c r="J107" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>79</v>
       </c>
@@ -8993,13 +9060,13 @@
         <v>80</v>
       </c>
       <c r="D108" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="F108" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="G108" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="H108">
         <v>48</v>
@@ -9008,10 +9075,10 @@
         <v>9</v>
       </c>
       <c r="J108" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>79</v>
       </c>
@@ -9022,13 +9089,13 @@
         <v>80</v>
       </c>
       <c r="D109" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="F109" t="s">
         <v>12</v>
       </c>
       <c r="G109" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="H109">
         <v>53</v>
@@ -9037,10 +9104,10 @@
         <v>9</v>
       </c>
       <c r="J109" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>79</v>
       </c>
@@ -9051,13 +9118,13 @@
         <v>80</v>
       </c>
       <c r="D110" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="F110" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G110" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H110">
         <v>54</v>
@@ -9066,10 +9133,10 @@
         <v>9</v>
       </c>
       <c r="J110" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>79</v>
       </c>
@@ -9080,13 +9147,13 @@
         <v>80</v>
       </c>
       <c r="D111" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="F111" t="s">
         <v>14</v>
       </c>
       <c r="G111" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="H111">
         <v>64</v>
@@ -9098,7 +9165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>79</v>
       </c>
@@ -9109,13 +9176,13 @@
         <v>80</v>
       </c>
       <c r="D112" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="F112" t="s">
         <v>23</v>
       </c>
       <c r="G112" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H112">
         <v>65</v>
@@ -9127,7 +9194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>79</v>
       </c>
@@ -9138,13 +9205,13 @@
         <v>80</v>
       </c>
       <c r="D113" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F113" t="s">
         <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H113">
         <v>66</v>
@@ -9156,7 +9223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>79</v>
       </c>
@@ -9167,13 +9234,13 @@
         <v>80</v>
       </c>
       <c r="D114" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F114" t="s">
         <v>18</v>
       </c>
       <c r="G114" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="H114">
         <v>67</v>
@@ -9185,47 +9252,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
       <c r="C115" t="s">
+        <v>94</v>
+      </c>
+      <c r="D115" t="s">
         <v>95</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>96</v>
-      </c>
-      <c r="E115" t="s">
-        <v>97</v>
       </c>
       <c r="F115" t="s">
         <v>12</v>
       </c>
       <c r="G115" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B116">
         <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D116" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F116" t="s">
         <v>12</v>
       </c>
       <c r="G116" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H116">
         <v>4</v>
@@ -9234,27 +9301,27 @@
         <v>9</v>
       </c>
       <c r="J116" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B117">
         <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D117" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F117" t="s">
         <v>12</v>
       </c>
       <c r="G117" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H117">
         <v>17</v>
@@ -9266,24 +9333,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B118">
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D118" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F118" t="s">
         <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H118">
         <v>22</v>
@@ -9295,24 +9362,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B119">
         <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D119" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="F119" t="s">
         <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H119">
         <v>41</v>
@@ -9324,24 +9391,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B120">
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D120" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F120" t="s">
         <v>23</v>
       </c>
       <c r="G120" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H120">
         <v>44</v>
@@ -9353,24 +9420,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B121">
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D121" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F121" t="s">
         <v>23</v>
       </c>
       <c r="G121" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H121">
         <v>50</v>
@@ -9382,24 +9449,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B122">
         <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D122" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
       </c>
       <c r="G122" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H122">
         <v>63</v>
@@ -9411,44 +9478,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
       <c r="C123" t="s">
+        <v>113</v>
+      </c>
+      <c r="D123" t="s">
         <v>114</v>
-      </c>
-      <c r="D123" t="s">
-        <v>115</v>
       </c>
       <c r="F123" t="s">
         <v>57</v>
       </c>
       <c r="G123" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B124">
         <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D124" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="F124" t="s">
         <v>12</v>
       </c>
       <c r="G124" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H124">
         <v>14</v>
@@ -9460,24 +9527,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B125">
         <v>3</v>
       </c>
       <c r="C125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D125" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="F125" t="s">
         <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H125">
         <v>49</v>
@@ -9489,47 +9556,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="D126" t="s">
+        <v>119</v>
+      </c>
+      <c r="E126" t="s">
         <v>120</v>
-      </c>
-      <c r="E126" t="s">
-        <v>121</v>
       </c>
       <c r="F126" t="s">
         <v>57</v>
       </c>
       <c r="G126" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B127">
         <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="D127" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="F127" t="s">
         <v>12</v>
       </c>
       <c r="G127" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H127">
         <v>11</v>
@@ -9541,24 +9608,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B128">
         <v>3</v>
       </c>
       <c r="C128" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="D128" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F128" t="s">
         <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H128">
         <v>40</v>
@@ -9570,24 +9637,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B129">
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="D129" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F129" t="s">
         <v>12</v>
       </c>
       <c r="G129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H129">
         <v>62</v>
@@ -9599,24 +9666,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B130">
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="D130" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F130" t="s">
         <v>23</v>
       </c>
       <c r="G130" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H130">
         <v>65</v>
@@ -9628,44 +9695,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="D131" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="F131" t="s">
         <v>57</v>
       </c>
       <c r="G131" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B132">
         <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="D132" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="F132" t="s">
         <v>12</v>
       </c>
       <c r="G132" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H132">
         <v>10</v>
@@ -9677,24 +9744,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B133">
         <v>3</v>
       </c>
       <c r="C133" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="D133" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F133" t="s">
         <v>35</v>
       </c>
       <c r="G133" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H133">
         <v>28</v>
@@ -9703,27 +9770,27 @@
         <v>9</v>
       </c>
       <c r="J133" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B134">
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="D134" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F134" t="s">
         <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H134">
         <v>46</v>
@@ -9735,24 +9802,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B135">
         <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="D135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F135" t="s">
         <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H135">
         <v>50</v>
@@ -9764,24 +9831,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B136">
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="D136" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F136" t="s">
         <v>14</v>
       </c>
       <c r="G136" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H136">
         <v>58</v>
@@ -9793,47 +9860,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
       <c r="C137" t="s">
+        <v>482</v>
+      </c>
+      <c r="D137" t="s">
+        <v>454</v>
+      </c>
+      <c r="E137" t="s">
         <v>138</v>
-      </c>
-      <c r="D137" t="s">
-        <v>477</v>
-      </c>
-      <c r="E137" t="s">
-        <v>139</v>
       </c>
       <c r="F137" t="s">
         <v>12</v>
       </c>
       <c r="G137" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138">
         <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D138" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="F138" t="s">
         <v>12</v>
       </c>
       <c r="G138" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H138">
         <v>4</v>
@@ -9842,27 +9909,27 @@
         <v>9</v>
       </c>
       <c r="J138" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B139">
         <v>3</v>
       </c>
       <c r="C139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D139" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F139" t="s">
         <v>12</v>
       </c>
       <c r="G139" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H139">
         <v>8</v>
@@ -9871,56 +9938,56 @@
         <v>9</v>
       </c>
       <c r="J139" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B140">
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D140" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F140" t="s">
         <v>57</v>
       </c>
       <c r="G140" t="s">
+        <v>145</v>
+      </c>
+      <c r="H140">
+        <v>9</v>
+      </c>
+      <c r="I140" t="s">
+        <v>9</v>
+      </c>
+      <c r="J140" t="s">
         <v>146</v>
       </c>
-      <c r="H140">
-        <v>9</v>
-      </c>
-      <c r="I140" t="s">
-        <v>9</v>
-      </c>
-      <c r="J140" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B141">
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D141" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F141" t="s">
         <v>12</v>
       </c>
       <c r="G141" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H141">
         <v>16</v>
@@ -9929,27 +9996,27 @@
         <v>9</v>
       </c>
       <c r="J141" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B142">
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D142" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F142" t="s">
         <v>12</v>
       </c>
       <c r="G142" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H142">
         <v>24</v>
@@ -9958,27 +10025,27 @@
         <v>9</v>
       </c>
       <c r="J142" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B143">
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D143" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="F143" t="s">
         <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="H143">
         <v>49</v>
@@ -9987,27 +10054,27 @@
         <v>9</v>
       </c>
       <c r="J143" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B144">
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D144" t="s">
+        <v>154</v>
+      </c>
+      <c r="F144" t="s">
         <v>155</v>
       </c>
-      <c r="F144" t="s">
+      <c r="G144" t="s">
         <v>156</v>
-      </c>
-      <c r="G144" t="s">
-        <v>157</v>
       </c>
       <c r="H144">
         <v>58</v>
@@ -10016,27 +10083,27 @@
         <v>9</v>
       </c>
       <c r="J144" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>136</v>
+      </c>
+      <c r="B145">
+        <v>9</v>
+      </c>
+      <c r="C145" t="s">
+        <v>137</v>
+      </c>
+      <c r="D145" t="s">
+        <v>431</v>
+      </c>
+      <c r="F145" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>137</v>
-      </c>
-      <c r="B145">
-        <v>9</v>
-      </c>
-      <c r="C145" t="s">
-        <v>138</v>
-      </c>
-      <c r="D145" t="s">
-        <v>453</v>
-      </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>159</v>
-      </c>
-      <c r="G145" t="s">
-        <v>160</v>
       </c>
       <c r="H145">
         <v>60</v>
@@ -10045,27 +10112,27 @@
         <v>9</v>
       </c>
       <c r="J145" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>136</v>
+      </c>
+      <c r="B146">
+        <v>10</v>
+      </c>
+      <c r="C146" t="s">
         <v>137</v>
       </c>
-      <c r="B146">
-        <v>10</v>
-      </c>
-      <c r="C146" t="s">
-        <v>138</v>
-      </c>
       <c r="D146" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="F146" t="s">
         <v>21</v>
       </c>
       <c r="G146" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H146">
         <v>67</v>
@@ -10074,47 +10141,47 @@
         <v>9</v>
       </c>
       <c r="J146" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D147" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
       </c>
       <c r="G147" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B148">
         <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>163</v>
+        <v>479</v>
       </c>
       <c r="D148" t="s">
-        <v>165</v>
+        <v>495</v>
       </c>
       <c r="F148" t="s">
         <v>35</v>
       </c>
       <c r="G148" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H148">
         <v>28</v>
@@ -10126,24 +10193,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B149">
         <v>3</v>
       </c>
       <c r="C149" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D149" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="F149" t="s">
         <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H149">
         <v>52</v>
@@ -10155,24 +10222,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B150">
         <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D150" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F150" t="s">
         <v>14</v>
       </c>
       <c r="G150" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H150">
         <v>61</v>
@@ -10184,24 +10251,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B151">
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D151" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F151" t="s">
         <v>14</v>
       </c>
       <c r="G151" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H151">
         <v>64</v>
@@ -10213,44 +10280,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D152" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F152" t="s">
         <v>57</v>
       </c>
       <c r="G152" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B153">
         <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>171</v>
+        <v>483</v>
       </c>
       <c r="D153" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F153" t="s">
         <v>14</v>
       </c>
       <c r="G153" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="H153">
         <v>6</v>
@@ -10262,24 +10329,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B154">
         <v>3</v>
       </c>
       <c r="C154" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D154" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F154" t="s">
         <v>12</v>
       </c>
       <c r="G154" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H154">
         <v>40</v>
@@ -10291,24 +10358,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B155">
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D155" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="F155" t="s">
         <v>43</v>
       </c>
       <c r="G155" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H155">
         <v>49</v>
@@ -10320,24 +10387,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B156">
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D156" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F156" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G156" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H156">
         <v>55</v>
@@ -10349,24 +10416,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B157">
         <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D157" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="F157" t="s">
         <v>12</v>
       </c>
       <c r="G157" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H157">
         <v>66</v>
@@ -10378,18 +10445,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>181</v>
+        <v>484</v>
       </c>
       <c r="D158" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E158" t="s">
         <v>42</v>
@@ -10398,27 +10465,27 @@
         <v>57</v>
       </c>
       <c r="G158" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B159">
         <v>2</v>
       </c>
       <c r="C159" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D159" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F159" t="s">
         <v>12</v>
       </c>
       <c r="G159" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -10430,24 +10497,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B160">
         <v>3</v>
       </c>
       <c r="C160" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D160" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F160" t="s">
         <v>73</v>
       </c>
       <c r="G160" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H160">
         <v>25</v>
@@ -10459,24 +10526,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B161">
         <v>4</v>
       </c>
       <c r="C161" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D161" t="s">
-        <v>188</v>
+        <v>496</v>
       </c>
       <c r="F161" t="s">
         <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H161">
         <v>28</v>
@@ -10488,24 +10555,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B162">
         <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D162" t="s">
-        <v>458</v>
+        <v>497</v>
       </c>
       <c r="F162" t="s">
         <v>73</v>
       </c>
       <c r="G162" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H162">
         <v>30</v>
@@ -10517,24 +10584,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B163">
         <v>6</v>
       </c>
       <c r="C163" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D163" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="F163" t="s">
         <v>18</v>
       </c>
       <c r="G163" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H163">
         <v>43</v>
@@ -10543,27 +10610,27 @@
         <v>9</v>
       </c>
       <c r="J163" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B164">
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D164" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F164" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G164" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H164">
         <v>48</v>
@@ -10572,47 +10639,47 @@
         <v>9</v>
       </c>
       <c r="J164" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B165">
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="D165" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F165" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G165" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B166">
         <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="D166" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="F166" t="s">
         <v>57</v>
       </c>
       <c r="G166" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H166">
         <v>22</v>
@@ -10624,44 +10691,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>200</v>
+        <v>474</v>
       </c>
       <c r="D167" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F167" t="s">
         <v>57</v>
       </c>
       <c r="G167" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B168">
         <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>200</v>
+        <v>474</v>
       </c>
       <c r="D168" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F168" t="s">
         <v>12</v>
       </c>
       <c r="G168" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H168">
         <v>11</v>
@@ -10670,27 +10737,27 @@
         <v>9</v>
       </c>
       <c r="J168" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B169">
         <v>3</v>
       </c>
       <c r="C169" t="s">
+        <v>474</v>
+      </c>
+      <c r="D169" t="s">
         <v>200</v>
-      </c>
-      <c r="D169" t="s">
-        <v>204</v>
       </c>
       <c r="F169" t="s">
         <v>57</v>
       </c>
       <c r="G169" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H169">
         <v>17</v>
@@ -10699,27 +10766,27 @@
         <v>9</v>
       </c>
       <c r="J169" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B170">
         <v>4</v>
       </c>
       <c r="C170" t="s">
-        <v>200</v>
+        <v>474</v>
       </c>
       <c r="D170" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F170" t="s">
         <v>57</v>
       </c>
       <c r="G170" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H170">
         <v>19</v>
@@ -10731,24 +10798,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B171">
         <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>200</v>
+        <v>474</v>
       </c>
       <c r="D171" t="s">
-        <v>208</v>
+        <v>498</v>
       </c>
       <c r="F171" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G171" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H171">
         <v>32</v>
@@ -10760,24 +10827,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B172">
         <v>6</v>
       </c>
       <c r="C172" t="s">
-        <v>200</v>
+        <v>474</v>
       </c>
       <c r="D172" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F172" t="s">
         <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H172">
         <v>34</v>
@@ -10789,24 +10856,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B173">
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>200</v>
+        <v>474</v>
       </c>
       <c r="D173" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F173" t="s">
         <v>14</v>
       </c>
       <c r="G173" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H173">
         <v>60</v>
@@ -10818,47 +10885,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>216</v>
+        <v>475</v>
       </c>
       <c r="D174" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E174" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F174" t="s">
         <v>57</v>
       </c>
       <c r="G174" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B175">
         <v>2</v>
       </c>
       <c r="C175" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D175" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F175" t="s">
         <v>35</v>
       </c>
       <c r="G175" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H175">
         <v>18</v>
@@ -10870,24 +10937,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B176">
         <v>3</v>
       </c>
       <c r="C176" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D176" t="s">
-        <v>220</v>
+        <v>499</v>
       </c>
       <c r="F176" t="s">
         <v>35</v>
       </c>
       <c r="G176" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H176">
         <v>22</v>
@@ -10899,24 +10966,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B177">
         <v>4</v>
       </c>
       <c r="C177" t="s">
+        <v>211</v>
+      </c>
+      <c r="D177" t="s">
+        <v>215</v>
+      </c>
+      <c r="F177" t="s">
         <v>216</v>
       </c>
-      <c r="D177" t="s">
-        <v>221</v>
-      </c>
-      <c r="F177" t="s">
-        <v>222</v>
-      </c>
       <c r="G177" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H177">
         <v>64</v>
@@ -10928,18 +10995,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>47</v>
+        <v>485</v>
       </c>
       <c r="D178" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E178" t="s">
         <v>48</v>
@@ -10948,12 +11015,12 @@
         <v>16</v>
       </c>
       <c r="G178" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B179">
         <v>2</v>
@@ -10962,13 +11029,13 @@
         <v>47</v>
       </c>
       <c r="D179" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F179" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G179" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -10980,9 +11047,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B180">
         <v>3</v>
@@ -10991,13 +11058,13 @@
         <v>47</v>
       </c>
       <c r="D180" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F180" t="s">
         <v>73</v>
       </c>
       <c r="G180" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H180">
         <v>4</v>
@@ -11009,9 +11076,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B181">
         <v>4</v>
@@ -11020,13 +11087,13 @@
         <v>47</v>
       </c>
       <c r="D181" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F181" t="s">
         <v>18</v>
       </c>
       <c r="G181" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H181">
         <v>14</v>
@@ -11038,9 +11105,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B182">
         <v>5</v>
@@ -11049,13 +11116,13 @@
         <v>47</v>
       </c>
       <c r="D182" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="F182" t="s">
         <v>16</v>
       </c>
       <c r="G182" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H182">
         <v>54</v>
@@ -11067,9 +11134,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B183">
         <v>6</v>
@@ -11078,13 +11145,13 @@
         <v>47</v>
       </c>
       <c r="D183" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F183" t="s">
         <v>16</v>
       </c>
       <c r="G183" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H183">
         <v>55</v>
@@ -11096,9 +11163,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B184">
         <v>7</v>
@@ -11107,13 +11174,13 @@
         <v>47</v>
       </c>
       <c r="D184" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="F184" t="s">
         <v>16</v>
       </c>
       <c r="G184" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H184">
         <v>59</v>
@@ -11125,9 +11192,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B185">
         <v>8</v>
@@ -11136,13 +11203,13 @@
         <v>47</v>
       </c>
       <c r="D185" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="F185" t="s">
         <v>16</v>
       </c>
       <c r="G185" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H185">
         <v>60</v>
@@ -11154,9 +11221,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B186">
         <v>9</v>
@@ -11165,13 +11232,13 @@
         <v>47</v>
       </c>
       <c r="D186" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F186" t="s">
         <v>23</v>
       </c>
       <c r="G186" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H186">
         <v>65</v>
@@ -11183,47 +11250,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B187">
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>238</v>
+        <v>476</v>
       </c>
       <c r="D187" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E187" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F187" t="s">
         <v>57</v>
       </c>
       <c r="G187" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B188">
         <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D188" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F188" t="s">
         <v>57</v>
       </c>
       <c r="G188" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H188">
         <v>18</v>
@@ -11235,24 +11302,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B189">
         <v>3</v>
       </c>
       <c r="C189" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D189" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="F189" t="s">
         <v>12</v>
       </c>
       <c r="G189" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H189">
         <v>46</v>
@@ -11264,24 +11331,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B190">
         <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D190" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="F190" t="s">
         <v>23</v>
       </c>
       <c r="G190" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H190">
         <v>50</v>
@@ -11293,24 +11360,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B191">
         <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D191" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="F191" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G191" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H191">
         <v>55</v>
@@ -11319,27 +11386,27 @@
         <v>9</v>
       </c>
       <c r="J191" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B192">
         <v>6</v>
       </c>
       <c r="C192" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D192" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F192" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G192" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H192">
         <v>56</v>
@@ -11348,50 +11415,50 @@
         <v>9</v>
       </c>
       <c r="J192" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B193">
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>247</v>
+        <v>477</v>
       </c>
       <c r="D193" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E193" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F193" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G193" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B194">
         <v>2</v>
       </c>
       <c r="C194" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D194" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F194" t="s">
         <v>12</v>
       </c>
       <c r="G194" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H194">
         <v>3</v>
@@ -11400,27 +11467,27 @@
         <v>9</v>
       </c>
       <c r="J194" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B195">
         <v>3</v>
       </c>
       <c r="C195" t="s">
+        <v>477</v>
+      </c>
+      <c r="D195" t="s">
         <v>247</v>
-      </c>
-      <c r="D195" t="s">
-        <v>253</v>
       </c>
       <c r="F195" t="s">
         <v>12</v>
       </c>
       <c r="G195" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H195">
         <v>21</v>
@@ -11432,24 +11499,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B196">
         <v>4</v>
       </c>
       <c r="C196" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D196" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F196" t="s">
         <v>43</v>
       </c>
       <c r="G196" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H196">
         <v>49</v>
@@ -11458,27 +11525,27 @@
         <v>9</v>
       </c>
       <c r="J196" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B197">
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>247</v>
+        <v>477</v>
       </c>
       <c r="D197" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F197" t="s">
         <v>23</v>
       </c>
       <c r="G197" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H197">
         <v>50</v>
@@ -11487,27 +11554,27 @@
         <v>9</v>
       </c>
       <c r="J197" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B198">
         <v>6</v>
       </c>
       <c r="C198" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D198" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F198" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G198" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H198">
         <v>57</v>
@@ -11516,27 +11583,27 @@
         <v>9</v>
       </c>
       <c r="J198" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B199">
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D199" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="F199" t="s">
         <v>12</v>
       </c>
       <c r="G199" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H199">
         <v>62</v>
@@ -11545,50 +11612,50 @@
         <v>9</v>
       </c>
       <c r="J199" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B200">
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>265</v>
+        <v>478</v>
       </c>
       <c r="D200" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E200" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F200" t="s">
         <v>57</v>
       </c>
       <c r="G200" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B201">
         <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D201" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F201" t="s">
         <v>33</v>
       </c>
       <c r="G201" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H201">
         <v>8</v>
@@ -11597,27 +11664,27 @@
         <v>9</v>
       </c>
       <c r="J201" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B202">
         <v>3</v>
       </c>
       <c r="C202" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D202" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F202" t="s">
         <v>33</v>
       </c>
       <c r="G202" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H202">
         <v>21</v>
@@ -11629,24 +11696,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B203">
         <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D203" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="F203" t="s">
         <v>33</v>
       </c>
       <c r="G203" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H203">
         <v>24</v>
@@ -11658,24 +11725,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B204">
         <v>5</v>
       </c>
       <c r="C204" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D204" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="F204" t="s">
         <v>34</v>
       </c>
       <c r="G204" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H204">
         <v>41</v>
@@ -11687,24 +11754,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B205">
         <v>6</v>
       </c>
       <c r="C205" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D205" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F205" t="s">
         <v>33</v>
       </c>
       <c r="G205" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H205">
         <v>42</v>
@@ -11716,24 +11783,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B206">
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D206" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="F206" t="s">
         <v>23</v>
       </c>
       <c r="G206" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H206">
         <v>44</v>
@@ -11745,24 +11812,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B207">
         <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D207" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F207" t="s">
         <v>35</v>
       </c>
       <c r="G207" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H207">
         <v>51</v>
@@ -11774,24 +11841,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B208">
         <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D208" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F208" t="s">
         <v>33</v>
       </c>
       <c r="G208" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H208">
         <v>52</v>
@@ -11803,24 +11870,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B209">
         <v>10</v>
       </c>
       <c r="C209" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D209" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F209" t="s">
         <v>14</v>
       </c>
       <c r="G209" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H209">
         <v>56</v>
@@ -11832,24 +11899,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B210">
         <v>11</v>
       </c>
       <c r="C210" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D210" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F210" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G210" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H210">
         <v>58</v>
@@ -11861,24 +11928,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B211">
         <v>12</v>
       </c>
       <c r="C211" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D211" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F211" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G211" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H211">
         <v>61</v>
@@ -11890,24 +11957,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B212">
         <v>13</v>
       </c>
       <c r="C212" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D212" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F212" t="s">
         <v>14</v>
       </c>
       <c r="G212" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H212">
         <v>63</v>
@@ -11919,47 +11986,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B213">
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D213" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E213" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F213" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G213" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B214">
         <v>2</v>
       </c>
       <c r="C214" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D214" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="F214" t="s">
         <v>33</v>
       </c>
       <c r="G214" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H214">
         <v>11</v>
@@ -11968,27 +12035,27 @@
         <v>9</v>
       </c>
       <c r="J214" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B215">
         <v>3</v>
       </c>
       <c r="C215" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D215" t="s">
-        <v>290</v>
+        <v>500</v>
       </c>
       <c r="F215" t="s">
         <v>35</v>
       </c>
       <c r="G215" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H215">
         <v>22</v>
@@ -11997,27 +12064,27 @@
         <v>9</v>
       </c>
       <c r="J215" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B216">
         <v>4</v>
       </c>
       <c r="C216" t="s">
-        <v>285</v>
+        <v>480</v>
       </c>
       <c r="D216" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="F216" t="s">
         <v>33</v>
       </c>
       <c r="G216" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H216">
         <v>24</v>
@@ -12026,27 +12093,27 @@
         <v>9</v>
       </c>
       <c r="J216" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B217">
         <v>5</v>
       </c>
       <c r="C217" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D217" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F217" t="s">
         <v>35</v>
       </c>
       <c r="G217" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H217">
         <v>25</v>
@@ -12055,27 +12122,27 @@
         <v>9</v>
       </c>
       <c r="J217" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B218">
         <v>6</v>
       </c>
       <c r="C218" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D218" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F218" t="s">
         <v>43</v>
       </c>
       <c r="G218" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H218">
         <v>27</v>
@@ -12084,27 +12151,27 @@
         <v>9</v>
       </c>
       <c r="J218" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B219">
         <v>7</v>
       </c>
       <c r="C219" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D219" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F219" t="s">
         <v>35</v>
       </c>
       <c r="G219" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H219">
         <v>31</v>
@@ -12113,27 +12180,27 @@
         <v>9</v>
       </c>
       <c r="J219" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B220">
         <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D220" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F220" t="s">
         <v>23</v>
       </c>
       <c r="G220" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H220">
         <v>50</v>
@@ -12142,27 +12209,27 @@
         <v>9</v>
       </c>
       <c r="J220" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B221">
         <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D221" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F221" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G221" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="H221">
         <v>54</v>
@@ -12174,24 +12241,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B222">
         <v>10</v>
       </c>
       <c r="C222" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D222" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F222" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G222" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H222">
         <v>61</v>
@@ -12219,21 +12286,21 @@
       <selection sqref="A1:B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="B1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -12241,15 +12308,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>63</v>
       </c>
@@ -12257,15 +12324,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -12273,7 +12340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>77</v>
       </c>
@@ -12281,55 +12348,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>82</v>
       </c>
@@ -12337,31 +12404,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -12369,7 +12436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
@@ -12377,7 +12444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>73</v>
       </c>
@@ -12385,7 +12452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>49</v>
       </c>
@@ -12393,23 +12460,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B23">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
@@ -12417,7 +12484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
@@ -12425,7 +12492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -12433,7 +12500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>43</v>
       </c>
@@ -12441,7 +12508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
@@ -12449,7 +12516,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -12457,7 +12524,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
@@ -12465,7 +12532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>57</v>
       </c>
@@ -12473,7 +12540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>35</v>
       </c>
@@ -12481,7 +12548,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
@@ -12489,9 +12556,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="B34">
         <v>221</v>

--- a/dataset/dataset.xlsx
+++ b/dataset/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ActionTransformer\Excel_data\example_sheets_part1\SU_adaptation_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7598116E-02DC-46DC-9D50-6F9BE288F2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846037DE-D9ED-4A8F-A86B-DAC043459496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="736">
   <si>
     <t>Sheet Name</t>
   </si>
@@ -1049,9 +1049,6 @@
   <si>
     <t>Fill in the Gross profit column and set the results as accounting type. (Category: Entry and manipulation, Formatting)
 Under column A named "Year_Profit" in a new sheet, display the Year Column in Sheet 1 as text appended by a "_" with the corresponding Gross Profit value. (Category: Entry and manipulation, Formatting, Formula)</t>
-  </si>
-  <si>
-    <t>Highlight cells in the Materials Charges column with white text and green fill if their values are greater than the corresponding value in the Sales column by 10%.</t>
   </si>
   <si>
     <t>Highlight cells in the Materials Charges column with white text and green fill if their values are greater than the corresponding value in the Sales column by 10%. (Category: Formatting)</t>
@@ -2471,16 +2468,22 @@
     <t>Create a line chart with "Angle" on the X-axis and both "Range" and "Height" on the Y-axis. Set all markers as squares. Set the chart title as "Range/Height vs. Angle". Display the legends at the top.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Highlight cells in the Materials Charges column with white text and green fill if their values are greater than the corresponding value in the Sales column by 10%.</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2489,14 +2492,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2925,7 +2928,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="251939632"/>
@@ -2984,7 +2987,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="251934352"/>
@@ -3019,7 +3022,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6313,22 +6316,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L222"/>
+  <dimension ref="A1:M222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="B204" workbookViewId="0">
+      <selection activeCell="Q232" sqref="Q232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="46" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="41.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6365,8 +6368,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -6377,10 +6383,10 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -6391,8 +6397,11 @@
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -6403,7 +6412,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -6417,8 +6426,12 @@
       <c r="L3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <f>M2+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -6452,8 +6465,12 @@
       <c r="L4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <f t="shared" ref="M4:M67" si="0">M3+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -6487,8 +6504,12 @@
       <c r="L5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -6522,8 +6543,12 @@
       <c r="L6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -6557,8 +6582,12 @@
       <c r="L7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -6592,8 +6621,12 @@
       <c r="L8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -6627,8 +6660,12 @@
       <c r="L9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -6662,8 +6699,12 @@
       <c r="L10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -6674,7 +6715,7 @@
         <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F11" t="s">
         <v>50</v>
@@ -6688,8 +6729,12 @@
       <c r="L11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -6723,8 +6768,12 @@
       <c r="L12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -6758,8 +6807,12 @@
       <c r="L13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -6785,7 +6838,7 @@
         <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -6793,8 +6846,12 @@
       <c r="L14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -6828,8 +6885,12 @@
       <c r="L15" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -6863,8 +6924,12 @@
       <c r="L16" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -6878,7 +6943,7 @@
         <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G17" t="s">
         <v>69</v>
@@ -6898,8 +6963,12 @@
       <c r="L17" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -6927,8 +6996,12 @@
       <c r="L18" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -6962,8 +7035,12 @@
       <c r="L19" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -6997,8 +7074,12 @@
       <c r="L20" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -7032,8 +7113,12 @@
       <c r="L21" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -7067,8 +7152,12 @@
       <c r="L22" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -7102,8 +7191,12 @@
       <c r="L23" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -7137,8 +7230,12 @@
       <c r="L24" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -7172,8 +7269,12 @@
       <c r="L25" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -7198,8 +7299,12 @@
       <c r="L26" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -7210,7 +7315,7 @@
         <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F27" t="s">
         <v>106</v>
@@ -7231,10 +7336,14 @@
         <v>1</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -7268,8 +7377,12 @@
       <c r="L28" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -7303,8 +7416,12 @@
       <c r="L29" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -7315,7 +7432,7 @@
         <v>101</v>
       </c>
       <c r="D30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F30" t="s">
         <v>114</v>
@@ -7336,10 +7453,14 @@
         <v>2</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -7373,8 +7494,12 @@
       <c r="L31" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15" customHeight="1">
       <c r="A32" t="s">
         <v>100</v>
       </c>
@@ -7408,8 +7533,12 @@
       <c r="L32" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15" customHeight="1">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -7443,8 +7572,12 @@
       <c r="L33" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15" customHeight="1">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -7478,8 +7611,12 @@
       <c r="L34" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15" customHeight="1">
       <c r="A35" t="s">
         <v>100</v>
       </c>
@@ -7513,8 +7650,12 @@
       <c r="L35" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1">
       <c r="A36" t="s">
         <v>131</v>
       </c>
@@ -7542,8 +7683,12 @@
       <c r="L36" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1">
       <c r="A37" t="s">
         <v>131</v>
       </c>
@@ -7577,8 +7722,12 @@
       <c r="L37" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -7612,8 +7761,12 @@
       <c r="L38" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" customHeight="1">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -7647,8 +7800,12 @@
       <c r="L39" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15" customHeight="1">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -7682,8 +7839,12 @@
       <c r="L40" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15" customHeight="1">
       <c r="A41" t="s">
         <v>131</v>
       </c>
@@ -7717,8 +7878,12 @@
       <c r="L41" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15" customHeight="1">
       <c r="A42" t="s">
         <v>131</v>
       </c>
@@ -7752,8 +7917,12 @@
       <c r="L42" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15" customHeight="1">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -7787,8 +7956,12 @@
       <c r="L43" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15" customHeight="1">
       <c r="A44" t="s">
         <v>131</v>
       </c>
@@ -7822,8 +7995,12 @@
       <c r="L44" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15" customHeight="1">
       <c r="A45" t="s">
         <v>131</v>
       </c>
@@ -7857,8 +8034,12 @@
       <c r="L45" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15" customHeight="1">
       <c r="A46" t="s">
         <v>131</v>
       </c>
@@ -7892,8 +8073,12 @@
       <c r="L46" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15" customHeight="1">
       <c r="A47" t="s">
         <v>131</v>
       </c>
@@ -7927,8 +8112,12 @@
       <c r="L47" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15" customHeight="1">
       <c r="A48" t="s">
         <v>131</v>
       </c>
@@ -7962,8 +8151,12 @@
       <c r="L48" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15" customHeight="1">
       <c r="A49" t="s">
         <v>131</v>
       </c>
@@ -7997,8 +8190,12 @@
       <c r="L49" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15" customHeight="1">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -8032,8 +8229,12 @@
       <c r="L50" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15" customHeight="1">
       <c r="A51" t="s">
         <v>131</v>
       </c>
@@ -8067,8 +8268,12 @@
       <c r="L51" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15" customHeight="1">
       <c r="A52" t="s">
         <v>178</v>
       </c>
@@ -8079,7 +8284,7 @@
         <v>179</v>
       </c>
       <c r="D52" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E52" t="s">
         <v>180</v>
@@ -8096,8 +8301,12 @@
       <c r="L52" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15" customHeight="1">
       <c r="A53" t="s">
         <v>178</v>
       </c>
@@ -8108,7 +8317,7 @@
         <v>179</v>
       </c>
       <c r="D53" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E53" t="s">
         <v>180</v>
@@ -8125,8 +8334,12 @@
       <c r="L53" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15" customHeight="1">
       <c r="A54" t="s">
         <v>178</v>
       </c>
@@ -8137,7 +8350,7 @@
         <v>179</v>
       </c>
       <c r="D54" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E54" t="s">
         <v>180</v>
@@ -8154,8 +8367,12 @@
       <c r="L54" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15" customHeight="1">
       <c r="A55" t="s">
         <v>178</v>
       </c>
@@ -8166,7 +8383,7 @@
         <v>179</v>
       </c>
       <c r="D55" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E55" t="s">
         <v>180</v>
@@ -8183,8 +8400,12 @@
       <c r="L55" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15" customHeight="1">
       <c r="A56" t="s">
         <v>178</v>
       </c>
@@ -8218,8 +8439,12 @@
       <c r="L56" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15" customHeight="1">
       <c r="A57" t="s">
         <v>178</v>
       </c>
@@ -8253,8 +8478,12 @@
       <c r="L57" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15" customHeight="1">
       <c r="A58" t="s">
         <v>178</v>
       </c>
@@ -8288,8 +8517,12 @@
       <c r="L58" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15" customHeight="1">
       <c r="A59" t="s">
         <v>178</v>
       </c>
@@ -8323,8 +8556,12 @@
       <c r="L59" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15" customHeight="1">
       <c r="A60" t="s">
         <v>178</v>
       </c>
@@ -8358,8 +8595,12 @@
       <c r="L60" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15" customHeight="1">
       <c r="A61" t="s">
         <v>178</v>
       </c>
@@ -8393,8 +8634,12 @@
       <c r="L61" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15" customHeight="1">
       <c r="A62" t="s">
         <v>178</v>
       </c>
@@ -8428,8 +8673,12 @@
       <c r="L62" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15" customHeight="1">
       <c r="A63" t="s">
         <v>178</v>
       </c>
@@ -8463,8 +8712,12 @@
       <c r="L63" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15" customHeight="1">
       <c r="A64" t="s">
         <v>178</v>
       </c>
@@ -8498,8 +8751,12 @@
       <c r="L64" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15" customHeight="1">
       <c r="A65" t="s">
         <v>214</v>
       </c>
@@ -8524,8 +8781,12 @@
       <c r="L65" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15" customHeight="1">
       <c r="A66" t="s">
         <v>214</v>
       </c>
@@ -8559,8 +8820,12 @@
       <c r="L66" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15" customHeight="1">
       <c r="A67" t="s">
         <v>214</v>
       </c>
@@ -8594,8 +8859,12 @@
       <c r="L67" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15" customHeight="1">
       <c r="A68" t="s">
         <v>214</v>
       </c>
@@ -8629,8 +8898,12 @@
       <c r="L68" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <f t="shared" ref="M68:M131" si="1">M67+1</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15" customHeight="1">
       <c r="A69" t="s">
         <v>214</v>
       </c>
@@ -8664,8 +8937,12 @@
       <c r="L69" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="15" customHeight="1">
       <c r="A70" t="s">
         <v>214</v>
       </c>
@@ -8699,8 +8976,12 @@
       <c r="L70" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="15" customHeight="1">
       <c r="A71" t="s">
         <v>231</v>
       </c>
@@ -8725,8 +9006,12 @@
       <c r="L71" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="15" customHeight="1">
       <c r="A72" t="s">
         <v>231</v>
       </c>
@@ -8760,8 +9045,12 @@
       <c r="L72" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="15" customHeight="1">
       <c r="A73" t="s">
         <v>231</v>
       </c>
@@ -8795,8 +9084,12 @@
       <c r="L73" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="15" customHeight="1">
       <c r="A74" t="s">
         <v>231</v>
       </c>
@@ -8830,8 +9123,12 @@
       <c r="L74" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15" customHeight="1">
       <c r="A75" t="s">
         <v>231</v>
       </c>
@@ -8865,8 +9162,12 @@
       <c r="L75" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="15" customHeight="1">
       <c r="A76" t="s">
         <v>231</v>
       </c>
@@ -8900,8 +9201,12 @@
       <c r="L76" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M76">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="15" customHeight="1">
       <c r="A77" t="s">
         <v>231</v>
       </c>
@@ -8935,8 +9240,12 @@
       <c r="L77" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M77">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15" customHeight="1">
       <c r="A78" t="s">
         <v>253</v>
       </c>
@@ -8961,8 +9270,12 @@
       <c r="L78" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="15" customHeight="1">
       <c r="A79" t="s">
         <v>253</v>
       </c>
@@ -8996,8 +9309,12 @@
       <c r="L79" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="15" customHeight="1">
       <c r="A80" t="s">
         <v>253</v>
       </c>
@@ -9031,8 +9348,12 @@
       <c r="L80" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M80">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="15" customHeight="1">
       <c r="A81" t="s">
         <v>253</v>
       </c>
@@ -9066,8 +9387,12 @@
       <c r="L81" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="15" customHeight="1">
       <c r="A82" t="s">
         <v>253</v>
       </c>
@@ -9101,8 +9426,12 @@
       <c r="L82" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M82">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15" customHeight="1">
       <c r="A83" t="s">
         <v>253</v>
       </c>
@@ -9136,8 +9465,12 @@
       <c r="L83" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M83">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15" customHeight="1">
       <c r="A84" t="s">
         <v>253</v>
       </c>
@@ -9171,8 +9504,12 @@
       <c r="L84" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M84">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="15" customHeight="1">
       <c r="A85" t="s">
         <v>274</v>
       </c>
@@ -9200,8 +9537,12 @@
       <c r="L85" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M85">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="15" customHeight="1">
       <c r="A86" t="s">
         <v>274</v>
       </c>
@@ -9235,8 +9576,12 @@
       <c r="L86" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M86">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="15" customHeight="1">
       <c r="A87" t="s">
         <v>274</v>
       </c>
@@ -9270,8 +9615,12 @@
       <c r="L87" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M87">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="15" customHeight="1">
       <c r="A88" t="s">
         <v>274</v>
       </c>
@@ -9305,8 +9654,12 @@
       <c r="L88" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M88">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="15" customHeight="1">
       <c r="A89" t="s">
         <v>274</v>
       </c>
@@ -9340,8 +9693,12 @@
       <c r="L89" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M89">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="15" customHeight="1">
       <c r="A90" t="s">
         <v>293</v>
       </c>
@@ -9369,8 +9726,12 @@
       <c r="L90" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M90">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="15" customHeight="1">
       <c r="A91" t="s">
         <v>293</v>
       </c>
@@ -9404,8 +9765,12 @@
       <c r="L91" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M91">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="15" customHeight="1">
       <c r="A92" t="s">
         <v>293</v>
       </c>
@@ -9439,8 +9804,12 @@
       <c r="L92" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M92">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="15" customHeight="1">
       <c r="A93" t="s">
         <v>293</v>
       </c>
@@ -9474,8 +9843,12 @@
       <c r="L93" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M93">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="15" customHeight="1">
       <c r="A94" t="s">
         <v>293</v>
       </c>
@@ -9509,8 +9882,12 @@
       <c r="L94" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M94">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="15" customHeight="1">
       <c r="A95" t="s">
         <v>293</v>
       </c>
@@ -9521,7 +9898,7 @@
         <v>294</v>
       </c>
       <c r="D95" t="s">
-        <v>310</v>
+        <v>734</v>
       </c>
       <c r="F95" t="s">
         <v>57</v>
@@ -9542,10 +9919,14 @@
         <v>1</v>
       </c>
       <c r="L95" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="15" customHeight="1">
       <c r="A96" t="s">
         <v>293</v>
       </c>
@@ -9556,7 +9937,7 @@
         <v>294</v>
       </c>
       <c r="D96" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F96" t="s">
         <v>157</v>
@@ -9577,10 +9958,14 @@
         <v>3</v>
       </c>
       <c r="L96" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15" customHeight="1">
       <c r="A97" t="s">
         <v>293</v>
       </c>
@@ -9591,13 +9976,13 @@
         <v>294</v>
       </c>
       <c r="D97" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F97" t="s">
         <v>61</v>
       </c>
       <c r="G97" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H97">
         <v>50</v>
@@ -9612,10 +9997,14 @@
         <v>1</v>
       </c>
       <c r="L97" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15" customHeight="1">
       <c r="A98" t="s">
         <v>293</v>
       </c>
@@ -9626,13 +10015,13 @@
         <v>294</v>
       </c>
       <c r="D98" t="s">
+        <v>316</v>
+      </c>
+      <c r="F98" t="s">
         <v>317</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>318</v>
-      </c>
-      <c r="G98" t="s">
-        <v>319</v>
       </c>
       <c r="H98">
         <v>54</v>
@@ -9647,24 +10036,28 @@
         <v>4</v>
       </c>
       <c r="L98" t="s">
+        <v>319</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="15" customHeight="1">
+      <c r="A99" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
         <v>321</v>
       </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>322</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>323</v>
-      </c>
-      <c r="E99" t="s">
-        <v>324</v>
       </c>
       <c r="F99" t="s">
         <v>57</v>
@@ -9676,24 +10069,28 @@
         <v>1</v>
       </c>
       <c r="L99" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="15" customHeight="1">
       <c r="A100" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B100">
         <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D100" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E100" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F100" t="s">
         <v>57</v>
@@ -9705,24 +10102,28 @@
         <v>1</v>
       </c>
       <c r="L100" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="15" customHeight="1">
       <c r="A101" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B101">
         <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D101" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E101" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F101" t="s">
         <v>57</v>
@@ -9734,53 +10135,61 @@
         <v>1</v>
       </c>
       <c r="L101" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="15" customHeight="1">
       <c r="A102" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B102">
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D102" t="s">
+        <v>329</v>
+      </c>
+      <c r="E102" t="s">
+        <v>323</v>
+      </c>
+      <c r="F102" t="s">
         <v>330</v>
       </c>
-      <c r="E102" t="s">
-        <v>324</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>331</v>
-      </c>
-      <c r="G102" t="s">
-        <v>332</v>
       </c>
       <c r="K102">
         <v>3</v>
       </c>
       <c r="L102" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="15" customHeight="1">
       <c r="A103" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B103">
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D103" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E103" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F103" t="s">
         <v>57</v>
@@ -9792,24 +10201,28 @@
         <v>1</v>
       </c>
       <c r="L103" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="15" customHeight="1">
       <c r="A104" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B104">
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D104" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E104" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F104" t="s">
         <v>57</v>
@@ -9821,21 +10234,25 @@
         <v>1</v>
       </c>
       <c r="L104" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="15" customHeight="1">
       <c r="A105" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B105">
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D105" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F105" t="s">
         <v>57</v>
@@ -9856,21 +10273,25 @@
         <v>1</v>
       </c>
       <c r="L105" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="15" customHeight="1">
       <c r="A106" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B106">
         <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D106" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F106" t="s">
         <v>112</v>
@@ -9885,27 +10306,31 @@
         <v>21</v>
       </c>
       <c r="J106" t="s">
+        <v>340</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106" t="s">
         <v>341</v>
       </c>
-      <c r="K106">
-        <v>1</v>
-      </c>
-      <c r="L106" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M106">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="15" customHeight="1">
       <c r="A107" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B107">
         <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D107" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F107" t="s">
         <v>157</v>
@@ -9920,33 +10345,37 @@
         <v>21</v>
       </c>
       <c r="J107" t="s">
+        <v>343</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107" t="s">
         <v>344</v>
       </c>
-      <c r="K107">
-        <v>1</v>
-      </c>
-      <c r="L107" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M107">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="15" customHeight="1">
       <c r="A108" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B108">
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D108" t="s">
+        <v>345</v>
+      </c>
+      <c r="F108" t="s">
         <v>346</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>347</v>
-      </c>
-      <c r="G108" t="s">
-        <v>348</v>
       </c>
       <c r="H108">
         <v>48</v>
@@ -9955,33 +10384,37 @@
         <v>21</v>
       </c>
       <c r="J108" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K108">
         <v>2</v>
       </c>
       <c r="L108" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="15" customHeight="1">
       <c r="A109" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B109">
         <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D109" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F109" t="s">
         <v>19</v>
       </c>
       <c r="G109" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H109">
         <v>53</v>
@@ -9990,30 +10423,34 @@
         <v>21</v>
       </c>
       <c r="J109" t="s">
+        <v>352</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109" t="s">
         <v>353</v>
       </c>
-      <c r="K109">
-        <v>1</v>
-      </c>
-      <c r="L109" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M109">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="15" customHeight="1">
       <c r="A110" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B110">
         <v>12</v>
       </c>
       <c r="C110" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D110" t="s">
+        <v>354</v>
+      </c>
+      <c r="F110" t="s">
         <v>355</v>
-      </c>
-      <c r="F110" t="s">
-        <v>356</v>
       </c>
       <c r="G110" t="s">
         <v>208</v>
@@ -10025,33 +10462,37 @@
         <v>21</v>
       </c>
       <c r="J110" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K110">
         <v>2</v>
       </c>
       <c r="L110" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="15" customHeight="1">
       <c r="A111" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B111">
         <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D111" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F111" t="s">
         <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H111">
         <v>64</v>
@@ -10066,21 +10507,25 @@
         <v>2</v>
       </c>
       <c r="L111" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="15" customHeight="1">
       <c r="A112" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B112">
         <v>14</v>
       </c>
       <c r="C112" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D112" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F112" t="s">
         <v>61</v>
@@ -10101,21 +10546,25 @@
         <v>1</v>
       </c>
       <c r="L112" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="15" customHeight="1">
       <c r="A113" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B113">
         <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D113" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F113" t="s">
         <v>19</v>
@@ -10136,21 +10585,25 @@
         <v>1</v>
       </c>
       <c r="L113" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="15" customHeight="1">
       <c r="A114" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B114">
         <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D114" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F114" t="s">
         <v>45</v>
@@ -10171,56 +10624,64 @@
         <v>1</v>
       </c>
       <c r="L114" t="s">
+        <v>366</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="15" customHeight="1">
+      <c r="A115" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
         <v>368</v>
       </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>369</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>370</v>
-      </c>
-      <c r="E115" t="s">
-        <v>371</v>
       </c>
       <c r="F115" t="s">
         <v>19</v>
       </c>
       <c r="G115" t="s">
+        <v>371</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115" t="s">
         <v>372</v>
       </c>
-      <c r="K115">
-        <v>1</v>
-      </c>
-      <c r="L115" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M115">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="15" customHeight="1">
       <c r="A116" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B116">
         <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D116" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F116" t="s">
         <v>19</v>
       </c>
       <c r="G116" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H116">
         <v>4</v>
@@ -10229,33 +10690,37 @@
         <v>21</v>
       </c>
       <c r="J116" t="s">
+        <v>375</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116" t="s">
         <v>376</v>
       </c>
-      <c r="K116">
-        <v>1</v>
-      </c>
-      <c r="L116" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M116">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="15" customHeight="1">
       <c r="A117" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B117">
         <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D117" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F117" t="s">
         <v>19</v>
       </c>
       <c r="G117" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H117">
         <v>17</v>
@@ -10270,21 +10735,25 @@
         <v>3</v>
       </c>
       <c r="L117" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="15" customHeight="1">
       <c r="A118" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B118">
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D118" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F118" t="s">
         <v>57</v>
@@ -10305,27 +10774,31 @@
         <v>1</v>
       </c>
       <c r="L118" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="15" customHeight="1">
       <c r="A119" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B119">
         <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D119" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F119" t="s">
         <v>112</v>
       </c>
       <c r="G119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H119">
         <v>41</v>
@@ -10340,21 +10813,25 @@
         <v>1</v>
       </c>
       <c r="L119" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="15" customHeight="1">
       <c r="A120" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B120">
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D120" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F120" t="s">
         <v>61</v>
@@ -10375,27 +10852,31 @@
         <v>1</v>
       </c>
       <c r="L120" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="15" customHeight="1">
       <c r="A121" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B121">
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D121" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F121" t="s">
         <v>61</v>
       </c>
       <c r="G121" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H121">
         <v>50</v>
@@ -10410,27 +10891,31 @@
         <v>1</v>
       </c>
       <c r="L121" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="15" customHeight="1">
       <c r="A122" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B122">
         <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D122" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F122" t="s">
         <v>37</v>
       </c>
       <c r="G122" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H122">
         <v>63</v>
@@ -10445,21 +10930,25 @@
         <v>2</v>
       </c>
       <c r="L122" t="s">
+        <v>391</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="15" customHeight="1">
+      <c r="A123" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
         <v>393</v>
       </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>394</v>
-      </c>
-      <c r="D123" t="s">
-        <v>395</v>
       </c>
       <c r="F123" t="s">
         <v>114</v>
@@ -10471,27 +10960,31 @@
         <v>2</v>
       </c>
       <c r="L123" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="15" customHeight="1">
       <c r="A124" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B124">
         <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D124" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F124" t="s">
         <v>19</v>
       </c>
       <c r="G124" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H124">
         <v>14</v>
@@ -10506,21 +10999,25 @@
         <v>1</v>
       </c>
       <c r="L124" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="15" customHeight="1">
       <c r="A125" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B125">
         <v>3</v>
       </c>
       <c r="C125" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D125" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F125" t="s">
         <v>157</v>
@@ -10541,56 +11038,64 @@
         <v>1</v>
       </c>
       <c r="L125" t="s">
+        <v>400</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="15" customHeight="1">
+      <c r="A126" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
         <v>402</v>
       </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>403</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>404</v>
-      </c>
-      <c r="E126" t="s">
-        <v>405</v>
       </c>
       <c r="F126" t="s">
         <v>114</v>
       </c>
       <c r="G126" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K126">
         <v>3</v>
       </c>
       <c r="L126" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+      <c r="M126">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="15" customHeight="1">
       <c r="A127" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B127">
         <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D127" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F127" t="s">
         <v>19</v>
       </c>
       <c r="G127" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H127">
         <v>11</v>
@@ -10605,27 +11110,31 @@
         <v>1</v>
       </c>
       <c r="L127" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+      <c r="M127">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="15" customHeight="1">
       <c r="A128" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B128">
         <v>3</v>
       </c>
       <c r="C128" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D128" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F128" t="s">
         <v>112</v>
       </c>
       <c r="G128" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H128">
         <v>40</v>
@@ -10640,27 +11149,31 @@
         <v>1</v>
       </c>
       <c r="L128" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="M128">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="15" customHeight="1">
       <c r="A129" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B129">
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D129" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F129" t="s">
         <v>19</v>
       </c>
       <c r="G129" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H129">
         <v>62</v>
@@ -10675,21 +11188,25 @@
         <v>2</v>
       </c>
       <c r="L129" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+      <c r="M129">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="15" customHeight="1">
       <c r="A130" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B130">
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D130" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F130" t="s">
         <v>61</v>
@@ -10710,21 +11227,25 @@
         <v>1</v>
       </c>
       <c r="L130" t="s">
+        <v>415</v>
+      </c>
+      <c r="M130">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="240">
+      <c r="A131" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" ht="220.8" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="D131" t="s">
         <v>417</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="D131" t="s">
-        <v>418</v>
       </c>
       <c r="F131" t="s">
         <v>114</v>
@@ -10736,27 +11257,31 @@
         <v>2</v>
       </c>
       <c r="L131" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="M131">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="15" customHeight="1">
       <c r="A132" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B132">
         <v>2</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D132" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F132" t="s">
         <v>19</v>
       </c>
       <c r="G132" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H132">
         <v>10</v>
@@ -10771,21 +11296,25 @@
         <v>3</v>
       </c>
       <c r="L132" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+      <c r="M132">
+        <f t="shared" ref="M132:M195" si="2">M131+1</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="15" customHeight="1">
       <c r="A133" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B133">
         <v>3</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D133" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F133" t="s">
         <v>57</v>
@@ -10800,27 +11329,31 @@
         <v>21</v>
       </c>
       <c r="J133" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K133">
         <v>2</v>
       </c>
       <c r="L133" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+      <c r="M133">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="15" customHeight="1">
       <c r="A134" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B134">
         <v>4</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D134" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F134" t="s">
         <v>106</v>
@@ -10841,27 +11374,31 @@
         <v>1</v>
       </c>
       <c r="L134" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+      <c r="M134">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="15" customHeight="1">
       <c r="A135" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B135">
         <v>5</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D135" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F135" t="s">
         <v>57</v>
       </c>
       <c r="G135" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H135">
         <v>50</v>
@@ -10876,27 +11413,31 @@
         <v>1</v>
       </c>
       <c r="L135" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="M135">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="15" customHeight="1">
       <c r="A136" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B136">
         <v>6</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D136" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F136" t="s">
         <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H136">
         <v>58</v>
@@ -10911,24 +11452,28 @@
         <v>2</v>
       </c>
       <c r="L136" t="s">
+        <v>431</v>
+      </c>
+      <c r="M136">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="15" customHeight="1">
+      <c r="A137" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
         <v>433</v>
       </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>434</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
         <v>435</v>
-      </c>
-      <c r="E137" t="s">
-        <v>436</v>
       </c>
       <c r="F137" t="s">
         <v>19</v>
@@ -10940,27 +11485,31 @@
         <v>2</v>
       </c>
       <c r="L137" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="M137">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="15" customHeight="1">
       <c r="A138" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B138">
         <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D138" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F138" t="s">
         <v>19</v>
       </c>
       <c r="G138" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H138">
         <v>4</v>
@@ -10969,27 +11518,31 @@
         <v>21</v>
       </c>
       <c r="J138" t="s">
+        <v>439</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138" t="s">
         <v>440</v>
       </c>
-      <c r="K138">
-        <v>1</v>
-      </c>
-      <c r="L138" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M138">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="15" customHeight="1">
       <c r="A139" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B139">
         <v>3</v>
       </c>
       <c r="C139" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D139" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F139" t="s">
         <v>19</v>
@@ -11004,33 +11557,37 @@
         <v>21</v>
       </c>
       <c r="J139" t="s">
+        <v>442</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139" t="s">
         <v>443</v>
       </c>
-      <c r="K139">
-        <v>1</v>
-      </c>
-      <c r="L139" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M139">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="15" customHeight="1">
       <c r="A140" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B140">
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D140" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F140" t="s">
         <v>114</v>
       </c>
       <c r="G140" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H140">
         <v>9</v>
@@ -11039,33 +11596,37 @@
         <v>21</v>
       </c>
       <c r="J140" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K140">
         <v>2</v>
       </c>
       <c r="L140" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="M140">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="15" customHeight="1">
       <c r="A141" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B141">
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D141" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F141" t="s">
         <v>19</v>
       </c>
       <c r="G141" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H141">
         <v>16</v>
@@ -11074,33 +11635,37 @@
         <v>21</v>
       </c>
       <c r="J141" t="s">
+        <v>450</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141" t="s">
         <v>451</v>
       </c>
-      <c r="K141">
-        <v>1</v>
-      </c>
-      <c r="L141" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M141">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="15" customHeight="1">
       <c r="A142" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B142">
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D142" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F142" t="s">
         <v>19</v>
       </c>
       <c r="G142" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H142">
         <v>24</v>
@@ -11109,33 +11674,37 @@
         <v>21</v>
       </c>
       <c r="J142" t="s">
+        <v>454</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142" t="s">
         <v>455</v>
       </c>
-      <c r="K142">
-        <v>1</v>
-      </c>
-      <c r="L142" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M142">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="15" customHeight="1">
       <c r="A143" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B143">
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D143" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F143" t="s">
         <v>157</v>
       </c>
       <c r="G143" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H143">
         <v>49</v>
@@ -11144,33 +11713,37 @@
         <v>21</v>
       </c>
       <c r="J143" t="s">
+        <v>458</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143" t="s">
         <v>459</v>
       </c>
-      <c r="K143">
-        <v>1</v>
-      </c>
-      <c r="L143" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M143">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="15" customHeight="1">
       <c r="A144" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B144">
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D144" t="s">
+        <v>460</v>
+      </c>
+      <c r="F144" t="s">
         <v>461</v>
       </c>
-      <c r="F144" t="s">
+      <c r="G144" t="s">
         <v>462</v>
-      </c>
-      <c r="G144" t="s">
-        <v>463</v>
       </c>
       <c r="H144">
         <v>58</v>
@@ -11179,33 +11752,37 @@
         <v>21</v>
       </c>
       <c r="J144" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K144">
         <v>3</v>
       </c>
       <c r="L144" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+      <c r="M144">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="15" customHeight="1">
       <c r="A145" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B145">
         <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D145" t="s">
+        <v>465</v>
+      </c>
+      <c r="F145" t="s">
         <v>466</v>
       </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>467</v>
-      </c>
-      <c r="G145" t="s">
-        <v>468</v>
       </c>
       <c r="H145">
         <v>60</v>
@@ -11214,33 +11791,37 @@
         <v>21</v>
       </c>
       <c r="J145" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K145">
         <v>3</v>
       </c>
       <c r="L145" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="M145">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="15" customHeight="1">
       <c r="A146" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B146">
         <v>10</v>
       </c>
       <c r="C146" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D146" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F146" t="s">
         <v>50</v>
       </c>
       <c r="G146" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H146">
         <v>67</v>
@@ -11249,53 +11830,61 @@
         <v>21</v>
       </c>
       <c r="J146" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K146">
         <v>2</v>
       </c>
       <c r="L146" t="s">
+        <v>471</v>
+      </c>
+      <c r="M146">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="15" customHeight="1">
+      <c r="A147" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
         <v>473</v>
       </c>
-      <c r="B147">
-        <v>1</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>474</v>
-      </c>
-      <c r="D147" t="s">
-        <v>475</v>
       </c>
       <c r="F147" t="s">
         <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K147">
         <v>4</v>
       </c>
       <c r="L147" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="M147">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="15" customHeight="1">
       <c r="A148" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B148">
         <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D148" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F148" t="s">
         <v>57</v>
@@ -11316,21 +11905,25 @@
         <v>2</v>
       </c>
       <c r="L148" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+      <c r="M148">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="15" customHeight="1">
       <c r="A149" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B149">
         <v>3</v>
       </c>
       <c r="C149" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D149" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F149" t="s">
         <v>106</v>
@@ -11351,27 +11944,31 @@
         <v>2</v>
       </c>
       <c r="L149" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+      <c r="M149">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="15" customHeight="1">
       <c r="A150" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B150">
         <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D150" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F150" t="s">
         <v>32</v>
       </c>
       <c r="G150" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H150">
         <v>61</v>
@@ -11386,27 +11983,31 @@
         <v>4</v>
       </c>
       <c r="L150" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+      <c r="M150">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="15" customHeight="1">
       <c r="A151" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B151">
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D151" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F151" t="s">
         <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H151">
         <v>64</v>
@@ -11421,21 +12022,25 @@
         <v>4</v>
       </c>
       <c r="L151" t="s">
+        <v>486</v>
+      </c>
+      <c r="M151">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="15" customHeight="1">
+      <c r="A152" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152" t="s">
         <v>488</v>
       </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>489</v>
-      </c>
-      <c r="D152" t="s">
-        <v>490</v>
       </c>
       <c r="F152" t="s">
         <v>114</v>
@@ -11447,27 +12052,31 @@
         <v>3</v>
       </c>
       <c r="L152" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="M152">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="15" customHeight="1">
       <c r="A153" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B153">
         <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D153" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F153" t="s">
         <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H153">
         <v>6</v>
@@ -11482,27 +12091,31 @@
         <v>5</v>
       </c>
       <c r="L153" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+      <c r="M153">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="15" customHeight="1">
       <c r="A154" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B154">
         <v>3</v>
       </c>
       <c r="C154" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D154" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F154" t="s">
         <v>19</v>
       </c>
       <c r="G154" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H154">
         <v>40</v>
@@ -11517,21 +12130,25 @@
         <v>1</v>
       </c>
       <c r="L154" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+      <c r="M154">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="15" customHeight="1">
       <c r="A155" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B155">
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D155" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F155" t="s">
         <v>157</v>
@@ -11552,27 +12169,31 @@
         <v>1</v>
       </c>
       <c r="L155" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+      <c r="M155">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="15" customHeight="1">
       <c r="A156" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B156">
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D156" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F156" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G156" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H156">
         <v>55</v>
@@ -11587,21 +12208,25 @@
         <v>2</v>
       </c>
       <c r="L156" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="M156">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="15" customHeight="1">
       <c r="A157" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B157">
         <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D157" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F157" t="s">
         <v>19</v>
@@ -11622,21 +12247,25 @@
         <v>1</v>
       </c>
       <c r="L157" t="s">
+        <v>502</v>
+      </c>
+      <c r="M157">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="15" customHeight="1">
+      <c r="A158" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158" t="s">
         <v>504</v>
       </c>
-      <c r="B158">
-        <v>1</v>
-      </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>505</v>
-      </c>
-      <c r="D158" t="s">
-        <v>506</v>
       </c>
       <c r="E158" t="s">
         <v>134</v>
@@ -11645,33 +12274,37 @@
         <v>114</v>
       </c>
       <c r="G158" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K158">
         <v>4</v>
       </c>
       <c r="L158" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+      <c r="M158">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="15" customHeight="1">
       <c r="A159" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B159">
         <v>2</v>
       </c>
       <c r="C159" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D159" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F159" t="s">
         <v>19</v>
       </c>
       <c r="G159" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -11686,21 +12319,25 @@
         <v>2</v>
       </c>
       <c r="L159" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+      <c r="M159">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="15" customHeight="1">
       <c r="A160" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B160">
         <v>3</v>
       </c>
       <c r="C160" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D160" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F160" t="s">
         <v>284</v>
@@ -11721,21 +12358,25 @@
         <v>2</v>
       </c>
       <c r="L160" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+      <c r="M160">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="15" customHeight="1">
       <c r="A161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B161">
         <v>4</v>
       </c>
       <c r="C161" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D161" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F161" t="s">
         <v>57</v>
@@ -11756,27 +12397,31 @@
         <v>2</v>
       </c>
       <c r="L161" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+      <c r="M161">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="15" customHeight="1">
       <c r="A162" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B162">
         <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D162" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F162" t="s">
         <v>284</v>
       </c>
       <c r="G162" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H162">
         <v>30</v>
@@ -11791,21 +12436,25 @@
         <v>2</v>
       </c>
       <c r="L162" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+      <c r="M162">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="15" customHeight="1">
       <c r="A163" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B163">
         <v>6</v>
       </c>
       <c r="C163" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D163" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F163" t="s">
         <v>45</v>
@@ -11820,33 +12469,37 @@
         <v>21</v>
       </c>
       <c r="J163" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K163">
         <v>2</v>
       </c>
       <c r="L163" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="M163">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="15" customHeight="1">
       <c r="A164" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B164">
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D164" t="s">
+        <v>521</v>
+      </c>
+      <c r="F164" t="s">
         <v>522</v>
       </c>
-      <c r="F164" t="s">
+      <c r="G164" t="s">
         <v>523</v>
-      </c>
-      <c r="G164" t="s">
-        <v>524</v>
       </c>
       <c r="H164">
         <v>48</v>
@@ -11855,59 +12508,67 @@
         <v>21</v>
       </c>
       <c r="J164" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K164">
         <v>3</v>
       </c>
       <c r="L164" t="s">
+        <v>524</v>
+      </c>
+      <c r="M164">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="15" customHeight="1">
+      <c r="A165" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
         <v>526</v>
       </c>
-      <c r="B165">
-        <v>1</v>
-      </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>527</v>
       </c>
-      <c r="D165" t="s">
+      <c r="F165" t="s">
         <v>528</v>
       </c>
-      <c r="F165" t="s">
+      <c r="G165" t="s">
         <v>529</v>
-      </c>
-      <c r="G165" t="s">
-        <v>530</v>
       </c>
       <c r="K165">
         <v>2</v>
       </c>
       <c r="L165" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+      <c r="M165">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="15" customHeight="1">
       <c r="A166" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B166">
         <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D166" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F166" t="s">
         <v>114</v>
       </c>
       <c r="G166" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H166">
         <v>22</v>
@@ -11922,21 +12583,25 @@
         <v>4</v>
       </c>
       <c r="L166" t="s">
+        <v>532</v>
+      </c>
+      <c r="M166">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="15" customHeight="1">
+      <c r="A167" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167" t="s">
         <v>534</v>
       </c>
-      <c r="B167">
-        <v>1</v>
-      </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>535</v>
-      </c>
-      <c r="D167" t="s">
-        <v>536</v>
       </c>
       <c r="F167" t="s">
         <v>114</v>
@@ -11948,21 +12613,25 @@
         <v>3</v>
       </c>
       <c r="L167" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+      <c r="M167">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="15" customHeight="1">
       <c r="A168" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B168">
         <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D168" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F168" t="s">
         <v>19</v>
@@ -11977,33 +12646,37 @@
         <v>21</v>
       </c>
       <c r="J168" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K168">
         <v>2</v>
       </c>
       <c r="L168" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+      <c r="M168">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="15" customHeight="1">
       <c r="A169" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B169">
         <v>3</v>
       </c>
       <c r="C169" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D169" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F169" t="s">
         <v>114</v>
       </c>
       <c r="G169" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H169">
         <v>17</v>
@@ -12012,33 +12685,37 @@
         <v>21</v>
       </c>
       <c r="J169" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K169">
         <v>3</v>
       </c>
       <c r="L169" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+      <c r="M169">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="15" customHeight="1">
       <c r="A170" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B170">
         <v>4</v>
       </c>
       <c r="C170" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D170" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F170" t="s">
         <v>114</v>
       </c>
       <c r="G170" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H170">
         <v>19</v>
@@ -12053,27 +12730,31 @@
         <v>4</v>
       </c>
       <c r="L170" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+      <c r="M170">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="15" customHeight="1">
       <c r="A171" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B171">
         <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D171" t="s">
+        <v>546</v>
+      </c>
+      <c r="F171" t="s">
         <v>547</v>
       </c>
-      <c r="F171" t="s">
+      <c r="G171" t="s">
         <v>548</v>
-      </c>
-      <c r="G171" t="s">
-        <v>549</v>
       </c>
       <c r="H171">
         <v>32</v>
@@ -12088,21 +12769,25 @@
         <v>4</v>
       </c>
       <c r="L171" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+      <c r="M171">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="15" customHeight="1">
       <c r="A172" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B172">
         <v>6</v>
       </c>
       <c r="C172" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D172" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F172" t="s">
         <v>57</v>
@@ -12123,27 +12808,31 @@
         <v>1</v>
       </c>
       <c r="L172" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+      <c r="M172">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="15" customHeight="1">
       <c r="A173" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B173">
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D173" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F173" t="s">
         <v>32</v>
       </c>
       <c r="G173" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H173">
         <v>60</v>
@@ -12158,24 +12847,28 @@
         <v>3</v>
       </c>
       <c r="L173" t="s">
+        <v>554</v>
+      </c>
+      <c r="M173">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" ht="15" customHeight="1">
+      <c r="A174" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174" t="s">
         <v>556</v>
       </c>
-      <c r="B174">
-        <v>1</v>
-      </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>557</v>
       </c>
-      <c r="D174" t="s">
+      <c r="E174" t="s">
         <v>558</v>
-      </c>
-      <c r="E174" t="s">
-        <v>559</v>
       </c>
       <c r="F174" t="s">
         <v>114</v>
@@ -12187,21 +12880,25 @@
         <v>3</v>
       </c>
       <c r="L174" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+      <c r="M174">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="15" customHeight="1">
       <c r="A175" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B175">
         <v>2</v>
       </c>
       <c r="C175" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D175" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F175" t="s">
         <v>57</v>
@@ -12222,21 +12919,25 @@
         <v>1</v>
       </c>
       <c r="L175" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+      <c r="M175">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="15" customHeight="1">
       <c r="A176" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B176">
         <v>3</v>
       </c>
       <c r="C176" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D176" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F176" t="s">
         <v>57</v>
@@ -12257,27 +12958,31 @@
         <v>1</v>
       </c>
       <c r="L176" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+      <c r="M176">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="15" customHeight="1">
       <c r="A177" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B177">
         <v>4</v>
       </c>
       <c r="C177" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D177" t="s">
+        <v>564</v>
+      </c>
+      <c r="F177" t="s">
         <v>565</v>
       </c>
-      <c r="F177" t="s">
+      <c r="G177" t="s">
         <v>566</v>
-      </c>
-      <c r="G177" t="s">
-        <v>567</v>
       </c>
       <c r="H177">
         <v>64</v>
@@ -12292,12 +12997,16 @@
         <v>2</v>
       </c>
       <c r="L177" t="s">
+        <v>567</v>
+      </c>
+      <c r="M177">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="15" customHeight="1">
+      <c r="A178" t="s">
         <v>568</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>569</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -12306,7 +13015,7 @@
         <v>179</v>
       </c>
       <c r="D178" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E178" t="s">
         <v>180</v>
@@ -12315,18 +13024,22 @@
         <v>37</v>
       </c>
       <c r="G178" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K178">
         <v>4</v>
       </c>
       <c r="L178" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+      <c r="M178">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="15" customHeight="1">
       <c r="A179" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B179">
         <v>2</v>
@@ -12335,13 +13048,13 @@
         <v>179</v>
       </c>
       <c r="D179" t="s">
+        <v>572</v>
+      </c>
+      <c r="F179" t="s">
         <v>573</v>
       </c>
-      <c r="F179" t="s">
+      <c r="G179" t="s">
         <v>574</v>
-      </c>
-      <c r="G179" t="s">
-        <v>575</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -12356,12 +13069,16 @@
         <v>1</v>
       </c>
       <c r="L179" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+      <c r="M179">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="15" customHeight="1">
       <c r="A180" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B180">
         <v>3</v>
@@ -12370,13 +13087,13 @@
         <v>179</v>
       </c>
       <c r="D180" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F180" t="s">
         <v>284</v>
       </c>
       <c r="G180" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H180">
         <v>4</v>
@@ -12391,12 +13108,16 @@
         <v>1</v>
       </c>
       <c r="L180" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+      <c r="M180">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="15" customHeight="1">
       <c r="A181" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B181">
         <v>4</v>
@@ -12405,7 +13126,7 @@
         <v>179</v>
       </c>
       <c r="D181" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F181" t="s">
         <v>45</v>
@@ -12426,12 +13147,16 @@
         <v>1</v>
       </c>
       <c r="L181" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+      <c r="M181">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" ht="15" customHeight="1">
       <c r="A182" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B182">
         <v>5</v>
@@ -12440,7 +13165,7 @@
         <v>179</v>
       </c>
       <c r="D182" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F182" t="s">
         <v>37</v>
@@ -12461,12 +13186,16 @@
         <v>4</v>
       </c>
       <c r="L182" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+      <c r="M182">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="15" customHeight="1">
       <c r="A183" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B183">
         <v>6</v>
@@ -12475,7 +13204,7 @@
         <v>179</v>
       </c>
       <c r="D183" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F183" t="s">
         <v>37</v>
@@ -12496,12 +13225,16 @@
         <v>2</v>
       </c>
       <c r="L183" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+      <c r="M183">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="15" customHeight="1">
       <c r="A184" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B184">
         <v>7</v>
@@ -12510,7 +13243,7 @@
         <v>179</v>
       </c>
       <c r="D184" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F184" t="s">
         <v>37</v>
@@ -12531,12 +13264,16 @@
         <v>2</v>
       </c>
       <c r="L184" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="M184">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="15" customHeight="1">
       <c r="A185" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B185">
         <v>8</v>
@@ -12545,13 +13282,13 @@
         <v>179</v>
       </c>
       <c r="D185" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F185" t="s">
         <v>37</v>
       </c>
       <c r="G185" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H185">
         <v>60</v>
@@ -12566,12 +13303,16 @@
         <v>2</v>
       </c>
       <c r="L185" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+      <c r="M185">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" ht="15" customHeight="1">
       <c r="A186" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B186">
         <v>9</v>
@@ -12580,7 +13321,7 @@
         <v>179</v>
       </c>
       <c r="D186" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F186" t="s">
         <v>61</v>
@@ -12601,24 +13342,28 @@
         <v>1</v>
       </c>
       <c r="L186" t="s">
+        <v>591</v>
+      </c>
+      <c r="M186">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="15" customHeight="1">
+      <c r="A187" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187" t="s">
         <v>593</v>
       </c>
-      <c r="B187">
-        <v>1</v>
-      </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>594</v>
       </c>
-      <c r="D187" t="s">
+      <c r="E187" t="s">
         <v>595</v>
-      </c>
-      <c r="E187" t="s">
-        <v>596</v>
       </c>
       <c r="F187" t="s">
         <v>114</v>
@@ -12630,21 +13375,25 @@
         <v>3</v>
       </c>
       <c r="L187" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+      <c r="M187">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="15" customHeight="1">
       <c r="A188" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B188">
         <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D188" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F188" t="s">
         <v>114</v>
@@ -12665,27 +13414,31 @@
         <v>3</v>
       </c>
       <c r="L188" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+      <c r="M188">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="15" customHeight="1">
       <c r="A189" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B189">
         <v>3</v>
       </c>
       <c r="C189" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D189" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F189" t="s">
         <v>19</v>
       </c>
       <c r="G189" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H189">
         <v>46</v>
@@ -12700,27 +13453,31 @@
         <v>2</v>
       </c>
       <c r="L189" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+      <c r="M189">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="15" customHeight="1">
       <c r="A190" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B190">
         <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D190" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F190" t="s">
         <v>61</v>
       </c>
       <c r="G190" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H190">
         <v>50</v>
@@ -12735,27 +13492,31 @@
         <v>1</v>
       </c>
       <c r="L190" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+      <c r="M190">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="15" customHeight="1">
       <c r="A191" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B191">
         <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D191" t="s">
+        <v>603</v>
+      </c>
+      <c r="F191" t="s">
         <v>604</v>
       </c>
-      <c r="F191" t="s">
+      <c r="G191" t="s">
         <v>605</v>
-      </c>
-      <c r="G191" t="s">
-        <v>606</v>
       </c>
       <c r="H191">
         <v>55</v>
@@ -12764,33 +13525,37 @@
         <v>21</v>
       </c>
       <c r="J191" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K191">
         <v>2</v>
       </c>
       <c r="L191" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+      <c r="M191">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" ht="15" customHeight="1">
       <c r="A192" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B192">
         <v>6</v>
       </c>
       <c r="C192" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D192" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F192" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G192" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H192">
         <v>56</v>
@@ -12799,56 +13564,64 @@
         <v>21</v>
       </c>
       <c r="J192" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K192">
         <v>3</v>
       </c>
       <c r="L192" t="s">
+        <v>609</v>
+      </c>
+      <c r="M192">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" ht="15" customHeight="1">
+      <c r="A193" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
         <v>611</v>
       </c>
-      <c r="B193">
-        <v>1</v>
-      </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>612</v>
       </c>
-      <c r="D193" t="s">
+      <c r="E193" t="s">
         <v>613</v>
       </c>
-      <c r="E193" t="s">
+      <c r="F193" t="s">
+        <v>604</v>
+      </c>
+      <c r="G193" t="s">
         <v>614</v>
-      </c>
-      <c r="F193" t="s">
-        <v>605</v>
-      </c>
-      <c r="G193" t="s">
-        <v>615</v>
       </c>
       <c r="K193">
         <v>3</v>
       </c>
       <c r="L193" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+      <c r="M193">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" ht="15" customHeight="1">
       <c r="A194" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B194">
         <v>2</v>
       </c>
       <c r="C194" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D194" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F194" t="s">
         <v>19</v>
@@ -12863,33 +13636,37 @@
         <v>21</v>
       </c>
       <c r="J194" t="s">
+        <v>617</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194" t="s">
         <v>618</v>
       </c>
-      <c r="K194">
-        <v>1</v>
-      </c>
-      <c r="L194" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M194">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" ht="15" customHeight="1">
       <c r="A195" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B195">
         <v>3</v>
       </c>
       <c r="C195" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D195" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F195" t="s">
         <v>19</v>
       </c>
       <c r="G195" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H195">
         <v>21</v>
@@ -12904,21 +13681,25 @@
         <v>1</v>
       </c>
       <c r="L195" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+      <c r="M195">
+        <f t="shared" si="2"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" ht="15" customHeight="1">
       <c r="A196" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B196">
         <v>4</v>
       </c>
       <c r="C196" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D196" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F196" t="s">
         <v>157</v>
@@ -12933,33 +13714,37 @@
         <v>21</v>
       </c>
       <c r="J196" t="s">
+        <v>623</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196" t="s">
         <v>624</v>
       </c>
-      <c r="K196">
-        <v>1</v>
-      </c>
-      <c r="L196" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M196">
+        <f t="shared" ref="M196:M222" si="3">M195+1</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" ht="15" customHeight="1">
       <c r="A197" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B197">
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D197" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F197" t="s">
         <v>61</v>
       </c>
       <c r="G197" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H197">
         <v>50</v>
@@ -12968,33 +13753,37 @@
         <v>21</v>
       </c>
       <c r="J197" t="s">
+        <v>626</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197" t="s">
         <v>627</v>
       </c>
-      <c r="K197">
-        <v>1</v>
-      </c>
-      <c r="L197" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M197">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" ht="15" customHeight="1">
       <c r="A198" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B198">
         <v>6</v>
       </c>
       <c r="C198" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D198" t="s">
+        <v>628</v>
+      </c>
+      <c r="F198" t="s">
+        <v>604</v>
+      </c>
+      <c r="G198" t="s">
         <v>629</v>
-      </c>
-      <c r="F198" t="s">
-        <v>605</v>
-      </c>
-      <c r="G198" t="s">
-        <v>630</v>
       </c>
       <c r="H198">
         <v>57</v>
@@ -13003,33 +13792,37 @@
         <v>21</v>
       </c>
       <c r="J198" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K198">
         <v>4</v>
       </c>
       <c r="L198" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="M198">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" ht="15" customHeight="1">
       <c r="A199" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B199">
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D199" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F199" t="s">
         <v>19</v>
       </c>
       <c r="G199" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H199">
         <v>62</v>
@@ -13038,30 +13831,34 @@
         <v>21</v>
       </c>
       <c r="J199" t="s">
+        <v>634</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199" t="s">
         <v>635</v>
       </c>
-      <c r="K199">
-        <v>1</v>
-      </c>
-      <c r="L199" t="s">
+      <c r="M199">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" ht="15" customHeight="1">
+      <c r="A200" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
         <v>637</v>
       </c>
-      <c r="B200">
-        <v>1</v>
-      </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
         <v>638</v>
       </c>
-      <c r="D200" t="s">
+      <c r="E200" t="s">
         <v>639</v>
-      </c>
-      <c r="E200" t="s">
-        <v>640</v>
       </c>
       <c r="F200" t="s">
         <v>114</v>
@@ -13073,21 +13870,25 @@
         <v>2</v>
       </c>
       <c r="L200" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+      <c r="M200">
+        <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" ht="15" customHeight="1">
       <c r="A201" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B201">
         <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D201" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F201" t="s">
         <v>106</v>
@@ -13102,27 +13903,31 @@
         <v>21</v>
       </c>
       <c r="J201" t="s">
+        <v>642</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201" t="s">
         <v>643</v>
       </c>
-      <c r="K201">
-        <v>1</v>
-      </c>
-      <c r="L201" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M201">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" ht="15" customHeight="1">
       <c r="A202" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B202">
         <v>3</v>
       </c>
       <c r="C202" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D202" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F202" t="s">
         <v>106</v>
@@ -13143,27 +13948,31 @@
         <v>1</v>
       </c>
       <c r="L202" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+      <c r="M202">
+        <f t="shared" si="3"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" ht="15" customHeight="1">
       <c r="A203" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B203">
         <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D203" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F203" t="s">
         <v>106</v>
       </c>
       <c r="G203" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H203">
         <v>24</v>
@@ -13178,21 +13987,25 @@
         <v>1</v>
       </c>
       <c r="L203" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+      <c r="M203">
+        <f t="shared" si="3"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" ht="15" customHeight="1">
       <c r="A204" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B204">
         <v>5</v>
       </c>
       <c r="C204" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D204" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F204" t="s">
         <v>112</v>
@@ -13213,21 +14026,25 @@
         <v>1</v>
       </c>
       <c r="L204" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+      <c r="M204">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" ht="15" customHeight="1">
       <c r="A205" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B205">
         <v>6</v>
       </c>
       <c r="C205" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D205" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F205" t="s">
         <v>106</v>
@@ -13248,21 +14065,25 @@
         <v>1</v>
       </c>
       <c r="L205" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+      <c r="M205">
+        <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" ht="15" customHeight="1">
       <c r="A206" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B206">
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D206" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F206" t="s">
         <v>61</v>
@@ -13283,27 +14104,31 @@
         <v>1</v>
       </c>
       <c r="L206" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+      <c r="M206">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" ht="15" customHeight="1">
       <c r="A207" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B207">
         <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D207" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F207" t="s">
         <v>57</v>
       </c>
       <c r="G207" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H207">
         <v>51</v>
@@ -13318,21 +14143,25 @@
         <v>1</v>
       </c>
       <c r="L207" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+      <c r="M207">
+        <f t="shared" si="3"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" ht="15" customHeight="1">
       <c r="A208" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B208">
         <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D208" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F208" t="s">
         <v>106</v>
@@ -13353,27 +14182,31 @@
         <v>1</v>
       </c>
       <c r="L208" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+      <c r="M208">
+        <f t="shared" si="3"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" ht="15" customHeight="1">
       <c r="A209" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B209">
         <v>10</v>
       </c>
       <c r="C209" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D209" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F209" t="s">
         <v>32</v>
       </c>
       <c r="G209" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H209">
         <v>56</v>
@@ -13388,27 +14221,31 @@
         <v>2</v>
       </c>
       <c r="L209" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+      <c r="M209">
+        <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" ht="15" customHeight="1">
       <c r="A210" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B210">
         <v>11</v>
       </c>
       <c r="C210" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D210" t="s">
+        <v>663</v>
+      </c>
+      <c r="F210" t="s">
+        <v>604</v>
+      </c>
+      <c r="G210" t="s">
         <v>664</v>
-      </c>
-      <c r="F210" t="s">
-        <v>605</v>
-      </c>
-      <c r="G210" t="s">
-        <v>665</v>
       </c>
       <c r="H210">
         <v>58</v>
@@ -13423,27 +14260,31 @@
         <v>1</v>
       </c>
       <c r="L210" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+      <c r="M210">
+        <f t="shared" si="3"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" ht="15" customHeight="1">
       <c r="A211" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B211">
         <v>12</v>
       </c>
       <c r="C211" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D211" t="s">
+        <v>666</v>
+      </c>
+      <c r="F211" t="s">
+        <v>317</v>
+      </c>
+      <c r="G211" t="s">
         <v>667</v>
-      </c>
-      <c r="F211" t="s">
-        <v>318</v>
-      </c>
-      <c r="G211" t="s">
-        <v>668</v>
       </c>
       <c r="H211">
         <v>61</v>
@@ -13458,27 +14299,31 @@
         <v>4</v>
       </c>
       <c r="L211" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+      <c r="M211">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" ht="15" customHeight="1">
       <c r="A212" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B212">
         <v>13</v>
       </c>
       <c r="C212" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D212" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F212" t="s">
         <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H212">
         <v>63</v>
@@ -13493,50 +14338,58 @@
         <v>2</v>
       </c>
       <c r="L212" t="s">
+        <v>671</v>
+      </c>
+      <c r="M212">
+        <f t="shared" si="3"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" ht="15" customHeight="1">
+      <c r="A213" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
         <v>673</v>
       </c>
-      <c r="B213">
-        <v>1</v>
-      </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>674</v>
       </c>
-      <c r="D213" t="s">
+      <c r="E213" t="s">
         <v>675</v>
       </c>
-      <c r="E213" t="s">
+      <c r="F213" t="s">
+        <v>604</v>
+      </c>
+      <c r="G213" t="s">
         <v>676</v>
-      </c>
-      <c r="F213" t="s">
-        <v>605</v>
-      </c>
-      <c r="G213" t="s">
-        <v>677</v>
       </c>
       <c r="K213">
         <v>7</v>
       </c>
       <c r="L213" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>677</v>
+      </c>
+      <c r="M213">
+        <f t="shared" si="3"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" ht="15" customHeight="1">
       <c r="A214" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B214">
         <v>2</v>
       </c>
       <c r="C214" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D214" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F214" t="s">
         <v>106</v>
@@ -13551,27 +14404,31 @@
         <v>21</v>
       </c>
       <c r="J214" t="s">
+        <v>679</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="L214" t="s">
         <v>680</v>
       </c>
-      <c r="K214">
-        <v>1</v>
-      </c>
-      <c r="L214" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M214">
+        <f t="shared" si="3"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" ht="15" customHeight="1">
       <c r="A215" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B215">
         <v>3</v>
       </c>
       <c r="C215" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D215" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F215" t="s">
         <v>57</v>
@@ -13586,33 +14443,37 @@
         <v>21</v>
       </c>
       <c r="J215" t="s">
+        <v>682</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215" t="s">
         <v>683</v>
       </c>
-      <c r="K215">
-        <v>1</v>
-      </c>
-      <c r="L215" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M215">
+        <f t="shared" si="3"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" ht="15" customHeight="1">
       <c r="A216" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B216">
         <v>4</v>
       </c>
       <c r="C216" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D216" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F216" t="s">
         <v>106</v>
       </c>
       <c r="G216" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H216">
         <v>24</v>
@@ -13621,27 +14482,31 @@
         <v>21</v>
       </c>
       <c r="J216" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K216">
         <v>1</v>
       </c>
       <c r="L216" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+      <c r="M216">
+        <f t="shared" si="3"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" ht="15" customHeight="1">
       <c r="A217" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B217">
         <v>5</v>
       </c>
       <c r="C217" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D217" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F217" t="s">
         <v>57</v>
@@ -13656,33 +14521,37 @@
         <v>21</v>
       </c>
       <c r="J217" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K217">
         <v>1</v>
       </c>
       <c r="L217" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+      <c r="M217">
+        <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" ht="15" customHeight="1">
       <c r="A218" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B218">
         <v>6</v>
       </c>
       <c r="C218" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D218" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F218" t="s">
         <v>157</v>
       </c>
       <c r="G218" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H218">
         <v>27</v>
@@ -13691,27 +14560,31 @@
         <v>21</v>
       </c>
       <c r="J218" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K218">
         <v>1</v>
       </c>
       <c r="L218" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+      <c r="M218">
+        <f t="shared" si="3"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" ht="15" customHeight="1">
       <c r="A219" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B219">
         <v>7</v>
       </c>
       <c r="C219" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D219" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F219" t="s">
         <v>57</v>
@@ -13726,33 +14599,37 @@
         <v>21</v>
       </c>
       <c r="J219" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K219">
         <v>1</v>
       </c>
       <c r="L219" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>692</v>
+      </c>
+      <c r="M219">
+        <f t="shared" si="3"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" ht="15" customHeight="1">
       <c r="A220" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B220">
         <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D220" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F220" t="s">
         <v>61</v>
       </c>
       <c r="G220" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H220">
         <v>50</v>
@@ -13761,33 +14638,37 @@
         <v>21</v>
       </c>
       <c r="J220" t="s">
+        <v>694</v>
+      </c>
+      <c r="K220">
+        <v>1</v>
+      </c>
+      <c r="L220" t="s">
         <v>695</v>
       </c>
-      <c r="K220">
-        <v>1</v>
-      </c>
-      <c r="L220" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M220">
+        <f t="shared" si="3"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" ht="15" customHeight="1">
       <c r="A221" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B221">
         <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D221" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F221" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G221" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H221">
         <v>54</v>
@@ -13802,27 +14683,31 @@
         <v>4</v>
       </c>
       <c r="L221" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>697</v>
+      </c>
+      <c r="M221">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" ht="15" customHeight="1">
       <c r="A222" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B222">
         <v>10</v>
       </c>
       <c r="C222" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D222" t="s">
+        <v>698</v>
+      </c>
+      <c r="F222" t="s">
+        <v>604</v>
+      </c>
+      <c r="G222" t="s">
         <v>699</v>
-      </c>
-      <c r="F222" t="s">
-        <v>605</v>
-      </c>
-      <c r="G222" t="s">
-        <v>700</v>
       </c>
       <c r="H222">
         <v>61</v>
@@ -13837,7 +14722,11 @@
         <v>4</v>
       </c>
       <c r="L222" t="s">
-        <v>701</v>
+        <v>700</v>
+      </c>
+      <c r="M222">
+        <f t="shared" si="3"/>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -13856,21 +14745,21 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="52.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B1" t="s">
         <v>702</v>
       </c>
-      <c r="B1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>176</v>
       </c>
@@ -13878,15 +14767,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>250</v>
       </c>
@@ -13894,15 +14783,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
@@ -13910,7 +14799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
         <v>307</v>
       </c>
@@ -13918,79 +14807,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
         <v>103</v>
       </c>
@@ -13998,7 +14887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
@@ -14006,7 +14895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -14014,7 +14903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
         <v>284</v>
       </c>
@@ -14022,7 +14911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
         <v>181</v>
       </c>
@@ -14030,23 +14919,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B23">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
         <v>112</v>
       </c>
@@ -14054,7 +14943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
         <v>45</v>
       </c>
@@ -14062,7 +14951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
         <v>37</v>
       </c>
@@ -14070,7 +14959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
         <v>157</v>
       </c>
@@ -14078,7 +14967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
@@ -14086,7 +14975,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
         <v>61</v>
       </c>
@@ -14094,7 +14983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
         <v>106</v>
       </c>
@@ -14102,7 +14991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
         <v>114</v>
       </c>
@@ -14110,7 +14999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
         <v>57</v>
       </c>
@@ -14118,7 +15007,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
         <v>19</v>
       </c>
@@ -14126,68 +15015,68 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B34">
         <v>221</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="B37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>732</v>
       </c>
     </row>
   </sheetData>
